--- a/report/part1/Deliverables/D2/steadystate.xlsx
+++ b/report/part1/Deliverables/D2/steadystate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23820" windowHeight="9855"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="steadystate" sheetId="1" r:id="rId1"/>
+    <sheet name="steadystate" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -28,584 +29,181 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Steady</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> State Response in Volts</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -621,9 +219,17 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>steadystate!$A$2:$A$257</c:f>
@@ -1408,10 +1014,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>9.765625E-3</c:v>
+                  <c:v>0.009765625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8359375E-2</c:v>
+                  <c:v>0.068359375</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1611328125</c:v>
@@ -2180,19 +1786,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="138299264"/>
-        <c:axId val="141303808"/>
+        <c:axId val="4132322"/>
+        <c:axId val="56642760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138299264"/>
+        <c:axId val="4132322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -2210,36 +1808,50 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>PWM</a:t>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>PWM values (0 - 255)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> values</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141303808"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="56642760"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141303808"/>
+        <c:axId val="56642760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2250,54 +1862,58 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Voltage</a:t>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Voltage at A0 (V)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> at Capacitor</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138299264"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="4132322"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2309,24 +1925,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Steady</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> State Response with ADC values</a:t>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Steady State Response with ADC values</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2342,9 +1957,17 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="4a7ebb"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>steadystate!$A$2:$A$257</c:f>
@@ -3901,19 +3524,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="141311360"/>
-        <c:axId val="141329920"/>
+        <c:axId val="43391161"/>
+        <c:axId val="39973093"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141311360"/>
+        <c:axId val="43391161"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -3931,36 +3546,50 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>PWM</a:t>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>PWM values</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> values</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141329920"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="39973093"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141329920"/>
+        <c:axId val="39973093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3971,59 +3600,78 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT"/>
+                  <a:rPr b="1" sz="1000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
                   <a:t>Values read by the ADC</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141311360"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="43391161"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>640800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>201600</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5037480" y="3343320"/>
+        <a:ext cx="7187040" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4033,29 +3681,27 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>55440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="3689280" y="200520"/>
+        <a:ext cx="9132120" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4068,3389 +3714,3115 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
-        <f>B2/1024*5</f>
-        <v>9.765625E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="0" t="n">
+        <f aca="false">B2/1024*5</f>
+        <v>0.009765625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">B3/1024*5</f>
-        <v>6.8359375E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="0" t="n">
+        <f aca="false">B3/1024*5</f>
+        <v>0.068359375</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="C4" s="0" t="n">
+        <f aca="false">B4/1024*5</f>
         <v>0.1611328125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="C5" s="0" t="n">
+        <f aca="false">B5/1024*5</f>
         <v>0.2734375</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="C6" s="0" t="n">
+        <f aca="false">B6/1024*5</f>
         <v>0.3759765625</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
+      <c r="C7" s="0" t="n">
+        <f aca="false">B7/1024*5</f>
         <v>0.4736328125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
+      <c r="C8" s="0" t="n">
+        <f aca="false">B8/1024*5</f>
         <v>0.56640625</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
+      <c r="C9" s="0" t="n">
+        <f aca="false">B9/1024*5</f>
         <v>0.6591796875</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
+      <c r="C10" s="0" t="n">
+        <f aca="false">B10/1024*5</f>
         <v>0.7421875</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
+      <c r="C11" s="0" t="n">
+        <f aca="false">B11/1024*5</f>
         <v>0.8203125</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
+      <c r="C12" s="0" t="n">
+        <f aca="false">B12/1024*5</f>
         <v>0.8935546875</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
+      <c r="C13" s="0" t="n">
+        <f aca="false">B13/1024*5</f>
         <v>0.9619140625</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
+      <c r="C14" s="0" t="n">
+        <f aca="false">B14/1024*5</f>
         <v>1.0302734375</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
+      <c r="C15" s="0" t="n">
+        <f aca="false">B15/1024*5</f>
         <v>1.09375</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
+      <c r="C16" s="0" t="n">
+        <f aca="false">B16/1024*5</f>
         <v>1.15234375</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
+      <c r="C17" s="0" t="n">
+        <f aca="false">B17/1024*5</f>
         <v>1.2109375</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
+      <c r="C18" s="0" t="n">
+        <f aca="false">B18/1024*5</f>
         <v>1.2646484375</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
+      <c r="C19" s="0" t="n">
+        <f aca="false">B19/1024*5</f>
         <v>1.3134765625</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
+      <c r="C20" s="0" t="n">
+        <f aca="false">B20/1024*5</f>
         <v>1.3671875</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
+      <c r="C21" s="0" t="n">
+        <f aca="false">B21/1024*5</f>
         <v>1.416015625</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>299</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
+      <c r="C22" s="0" t="n">
+        <f aca="false">B22/1024*5</f>
         <v>1.4599609375</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
+      <c r="C23" s="0" t="n">
+        <f aca="false">B23/1024*5</f>
         <v>1.4990234375</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
+      <c r="C24" s="0" t="n">
+        <f aca="false">B24/1024*5</f>
         <v>1.54296875</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
+      <c r="C25" s="0" t="n">
+        <f aca="false">B25/1024*5</f>
         <v>1.58203125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
+      <c r="C26" s="0" t="n">
+        <f aca="false">B26/1024*5</f>
         <v>1.62109375</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
+      <c r="C27" s="0" t="n">
+        <f aca="false">B27/1024*5</f>
         <v>1.66015625</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>347</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
+      <c r="C28" s="0" t="n">
+        <f aca="false">B28/1024*5</f>
         <v>1.6943359375</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
+      <c r="C29" s="0" t="n">
+        <f aca="false">B29/1024*5</f>
         <v>1.7333984375</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
+      <c r="C30" s="0" t="n">
+        <f aca="false">B30/1024*5</f>
         <v>1.7626953125</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
+      <c r="C31" s="0" t="n">
+        <f aca="false">B31/1024*5</f>
         <v>1.796875</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>374</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
+      <c r="C32" s="0" t="n">
+        <f aca="false">B32/1024*5</f>
         <v>1.826171875</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>379</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
+      <c r="C33" s="0" t="n">
+        <f aca="false">B33/1024*5</f>
         <v>1.8505859375</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
+      <c r="C34" s="0" t="n">
+        <f aca="false">B34/1024*5</f>
         <v>1.8896484375</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>393</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
+      <c r="C35" s="0" t="n">
+        <f aca="false">B35/1024*5</f>
         <v>1.9189453125</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
+      <c r="C36" s="0" t="n">
+        <f aca="false">B36/1024*5</f>
         <v>1.953125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>404</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
+      <c r="C37" s="0" t="n">
+        <f aca="false">B37/1024*5</f>
         <v>1.97265625</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>410</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
+      <c r="C38" s="0" t="n">
+        <f aca="false">B38/1024*5</f>
         <v>2.001953125</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>415</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
+      <c r="C39" s="0" t="n">
+        <f aca="false">B39/1024*5</f>
         <v>2.0263671875</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>418</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
+      <c r="C40" s="0" t="n">
+        <f aca="false">B40/1024*5</f>
         <v>2.041015625</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>425</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
+      <c r="C41" s="0" t="n">
+        <f aca="false">B41/1024*5</f>
         <v>2.0751953125</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>430</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
+      <c r="C42" s="0" t="n">
+        <f aca="false">B42/1024*5</f>
         <v>2.099609375</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>436</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
+      <c r="C43" s="0" t="n">
+        <f aca="false">B43/1024*5</f>
         <v>2.12890625</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>439</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
+      <c r="C44" s="0" t="n">
+        <f aca="false">B44/1024*5</f>
         <v>2.1435546875</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>445</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
+      <c r="C45" s="0" t="n">
+        <f aca="false">B45/1024*5</f>
         <v>2.1728515625</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>448</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
+      <c r="C46" s="0" t="n">
+        <f aca="false">B46/1024*5</f>
         <v>2.1875</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>451</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
+      <c r="C47" s="0" t="n">
+        <f aca="false">B47/1024*5</f>
         <v>2.2021484375</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>457</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
+      <c r="C48" s="0" t="n">
+        <f aca="false">B48/1024*5</f>
         <v>2.2314453125</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>461</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
+      <c r="C49" s="0" t="n">
+        <f aca="false">B49/1024*5</f>
         <v>2.2509765625</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>465</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
+      <c r="C50" s="0" t="n">
+        <f aca="false">B50/1024*5</f>
         <v>2.2705078125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>469</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
+      <c r="C51" s="0" t="n">
+        <f aca="false">B51/1024*5</f>
         <v>2.2900390625</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>474</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
+      <c r="C52" s="0" t="n">
+        <f aca="false">B52/1024*5</f>
         <v>2.314453125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
+      <c r="C53" s="0" t="n">
+        <f aca="false">B53/1024*5</f>
         <v>2.333984375</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>479</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
+      <c r="C54" s="0" t="n">
+        <f aca="false">B54/1024*5</f>
         <v>2.3388671875</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>484</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
+      <c r="C55" s="0" t="n">
+        <f aca="false">B55/1024*5</f>
         <v>2.36328125</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>488</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
+      <c r="C56" s="0" t="n">
+        <f aca="false">B56/1024*5</f>
         <v>2.3828125</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>491</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
+      <c r="C57" s="0" t="n">
+        <f aca="false">B57/1024*5</f>
         <v>2.3974609375</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>494</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
+      <c r="C58" s="0" t="n">
+        <f aca="false">B58/1024*5</f>
         <v>2.412109375</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>498</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
+      <c r="C59" s="0" t="n">
+        <f aca="false">B59/1024*5</f>
         <v>2.431640625</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>503</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="0"/>
+      <c r="C60" s="0" t="n">
+        <f aca="false">B60/1024*5</f>
         <v>2.4560546875</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>503</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="0"/>
+      <c r="C61" s="0" t="n">
+        <f aca="false">B61/1024*5</f>
         <v>2.4560546875</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="0"/>
+      <c r="C62" s="0" t="n">
+        <f aca="false">B62/1024*5</f>
         <v>2.48046875</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="0"/>
+      <c r="C63" s="0" t="n">
+        <f aca="false">B63/1024*5</f>
         <v>2.4951171875</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>513</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="0"/>
+      <c r="C64" s="0" t="n">
+        <f aca="false">B64/1024*5</f>
         <v>2.5048828125</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>516</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="0"/>
+      <c r="C65" s="0" t="n">
+        <f aca="false">B65/1024*5</f>
         <v>2.51953125</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="C66">
-        <f t="shared" si="0"/>
+      <c r="C66" s="0" t="n">
+        <f aca="false">B66/1024*5</f>
         <v>2.5390625</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>524</v>
       </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C130" si="1">B67/1024*5</f>
+      <c r="C67" s="0" t="n">
+        <f aca="false">B67/1024*5</f>
         <v>2.55859375</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>524</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="1"/>
+      <c r="C68" s="0" t="n">
+        <f aca="false">B68/1024*5</f>
         <v>2.55859375</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>529</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="1"/>
+      <c r="C69" s="0" t="n">
+        <f aca="false">B69/1024*5</f>
         <v>2.5830078125</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>531</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="1"/>
+      <c r="C70" s="0" t="n">
+        <f aca="false">B70/1024*5</f>
         <v>2.5927734375</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>533</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="1"/>
+      <c r="C71" s="0" t="n">
+        <f aca="false">B71/1024*5</f>
         <v>2.6025390625</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>536</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="1"/>
+      <c r="C72" s="0" t="n">
+        <f aca="false">B72/1024*5</f>
         <v>2.6171875</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="C73">
-        <f t="shared" si="1"/>
+      <c r="C73" s="0" t="n">
+        <f aca="false">B73/1024*5</f>
         <v>2.6318359375</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>542</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="1"/>
+      <c r="C74" s="0" t="n">
+        <f aca="false">B74/1024*5</f>
         <v>2.646484375</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>543</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="1"/>
+      <c r="C75" s="0" t="n">
+        <f aca="false">B75/1024*5</f>
         <v>2.6513671875</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>546</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="1"/>
+      <c r="C76" s="0" t="n">
+        <f aca="false">B76/1024*5</f>
         <v>2.666015625</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="1"/>
+      <c r="C77" s="0" t="n">
+        <f aca="false">B77/1024*5</f>
         <v>2.685546875</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="1"/>
+      <c r="C78" s="0" t="n">
+        <f aca="false">B78/1024*5</f>
         <v>2.685546875</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>553</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="1"/>
+      <c r="C79" s="0" t="n">
+        <f aca="false">B79/1024*5</f>
         <v>2.7001953125</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>556</v>
       </c>
-      <c r="C80">
-        <f t="shared" si="1"/>
+      <c r="C80" s="0" t="n">
+        <f aca="false">B80/1024*5</f>
         <v>2.71484375</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>559</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="1"/>
+      <c r="C81" s="0" t="n">
+        <f aca="false">B81/1024*5</f>
         <v>2.7294921875</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>559</v>
       </c>
-      <c r="C82">
-        <f t="shared" si="1"/>
+      <c r="C82" s="0" t="n">
+        <f aca="false">B82/1024*5</f>
         <v>2.7294921875</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>563</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="1"/>
+      <c r="C83" s="0" t="n">
+        <f aca="false">B83/1024*5</f>
         <v>2.7490234375</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>567</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="1"/>
+      <c r="C84" s="0" t="n">
+        <f aca="false">B84/1024*5</f>
         <v>2.7685546875</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>566</v>
       </c>
-      <c r="C85">
-        <f t="shared" si="1"/>
+      <c r="C85" s="0" t="n">
+        <f aca="false">B85/1024*5</f>
         <v>2.763671875</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>569</v>
       </c>
-      <c r="C86">
-        <f t="shared" si="1"/>
+      <c r="C86" s="0" t="n">
+        <f aca="false">B86/1024*5</f>
         <v>2.7783203125</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>572</v>
       </c>
-      <c r="C87">
-        <f t="shared" si="1"/>
+      <c r="C87" s="0" t="n">
+        <f aca="false">B87/1024*5</f>
         <v>2.79296875</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>574</v>
       </c>
-      <c r="C88">
-        <f t="shared" si="1"/>
+      <c r="C88" s="0" t="n">
+        <f aca="false">B88/1024*5</f>
         <v>2.802734375</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>574</v>
       </c>
-      <c r="C89">
-        <f t="shared" si="1"/>
+      <c r="C89" s="0" t="n">
+        <f aca="false">B89/1024*5</f>
         <v>2.802734375</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>578</v>
       </c>
-      <c r="C90">
-        <f t="shared" si="1"/>
+      <c r="C90" s="0" t="n">
+        <f aca="false">B90/1024*5</f>
         <v>2.822265625</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>581</v>
       </c>
-      <c r="C91">
-        <f t="shared" si="1"/>
+      <c r="C91" s="0" t="n">
+        <f aca="false">B91/1024*5</f>
         <v>2.8369140625</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>579</v>
       </c>
-      <c r="C92">
-        <f t="shared" si="1"/>
+      <c r="C92" s="0" t="n">
+        <f aca="false">B92/1024*5</f>
         <v>2.8271484375</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>583</v>
       </c>
-      <c r="C93">
-        <f t="shared" si="1"/>
+      <c r="C93" s="0" t="n">
+        <f aca="false">B93/1024*5</f>
         <v>2.8466796875</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>585</v>
       </c>
-      <c r="C94">
-        <f t="shared" si="1"/>
+      <c r="C94" s="0" t="n">
+        <f aca="false">B94/1024*5</f>
         <v>2.8564453125</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>587</v>
       </c>
-      <c r="C95">
-        <f t="shared" si="1"/>
+      <c r="C95" s="0" t="n">
+        <f aca="false">B95/1024*5</f>
         <v>2.8662109375</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>588</v>
       </c>
-      <c r="C96">
-        <f t="shared" si="1"/>
+      <c r="C96" s="0" t="n">
+        <f aca="false">B96/1024*5</f>
         <v>2.87109375</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>591</v>
       </c>
-      <c r="C97">
-        <f t="shared" si="1"/>
+      <c r="C97" s="0" t="n">
+        <f aca="false">B97/1024*5</f>
         <v>2.8857421875</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>594</v>
       </c>
-      <c r="C98">
-        <f t="shared" si="1"/>
+      <c r="C98" s="0" t="n">
+        <f aca="false">B98/1024*5</f>
         <v>2.900390625</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>593</v>
       </c>
-      <c r="C99">
-        <f t="shared" si="1"/>
+      <c r="C99" s="0" t="n">
+        <f aca="false">B99/1024*5</f>
         <v>2.8955078125</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>596</v>
       </c>
-      <c r="C100">
-        <f t="shared" si="1"/>
+      <c r="C100" s="0" t="n">
+        <f aca="false">B100/1024*5</f>
         <v>2.91015625</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>599</v>
       </c>
-      <c r="C101">
-        <f t="shared" si="1"/>
+      <c r="C101" s="0" t="n">
+        <f aca="false">B101/1024*5</f>
         <v>2.9248046875</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="C102">
-        <f t="shared" si="1"/>
+      <c r="C102" s="0" t="n">
+        <f aca="false">B102/1024*5</f>
         <v>2.9296875</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>601</v>
       </c>
-      <c r="C103">
-        <f t="shared" si="1"/>
+      <c r="C103" s="0" t="n">
+        <f aca="false">B103/1024*5</f>
         <v>2.9345703125</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>603</v>
       </c>
-      <c r="C104">
-        <f t="shared" si="1"/>
+      <c r="C104" s="0" t="n">
+        <f aca="false">B104/1024*5</f>
         <v>2.9443359375</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>606</v>
       </c>
-      <c r="C105">
-        <f t="shared" si="1"/>
+      <c r="C105" s="0" t="n">
+        <f aca="false">B105/1024*5</f>
         <v>2.958984375</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>604</v>
       </c>
-      <c r="C106">
-        <f t="shared" si="1"/>
+      <c r="C106" s="0" t="n">
+        <f aca="false">B106/1024*5</f>
         <v>2.94921875</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>608</v>
       </c>
-      <c r="C107">
-        <f t="shared" si="1"/>
+      <c r="C107" s="0" t="n">
+        <f aca="false">B107/1024*5</f>
         <v>2.96875</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>611</v>
       </c>
-      <c r="C108">
-        <f t="shared" si="1"/>
+      <c r="C108" s="0" t="n">
+        <f aca="false">B108/1024*5</f>
         <v>2.9833984375</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>611</v>
       </c>
-      <c r="C109">
-        <f t="shared" si="1"/>
+      <c r="C109" s="0" t="n">
+        <f aca="false">B109/1024*5</f>
         <v>2.9833984375</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>612</v>
       </c>
-      <c r="C110">
-        <f t="shared" si="1"/>
+      <c r="C110" s="0" t="n">
+        <f aca="false">B110/1024*5</f>
         <v>2.98828125</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>615</v>
       </c>
-      <c r="C111">
-        <f t="shared" si="1"/>
+      <c r="C111" s="0" t="n">
+        <f aca="false">B111/1024*5</f>
         <v>3.0029296875</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>617</v>
       </c>
-      <c r="C112">
-        <f t="shared" si="1"/>
+      <c r="C112" s="0" t="n">
+        <f aca="false">B112/1024*5</f>
         <v>3.0126953125</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>616</v>
       </c>
-      <c r="C113">
-        <f t="shared" si="1"/>
+      <c r="C113" s="0" t="n">
+        <f aca="false">B113/1024*5</f>
         <v>3.0078125</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>619</v>
       </c>
-      <c r="C114">
-        <f t="shared" si="1"/>
+      <c r="C114" s="0" t="n">
+        <f aca="false">B114/1024*5</f>
         <v>3.0224609375</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>622</v>
       </c>
-      <c r="C115">
-        <f t="shared" si="1"/>
+      <c r="C115" s="0" t="n">
+        <f aca="false">B115/1024*5</f>
         <v>3.037109375</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>622</v>
       </c>
-      <c r="C116">
-        <f t="shared" si="1"/>
+      <c r="C116" s="0" t="n">
+        <f aca="false">B116/1024*5</f>
         <v>3.037109375</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>623</v>
       </c>
-      <c r="C117">
-        <f t="shared" si="1"/>
+      <c r="C117" s="0" t="n">
+        <f aca="false">B117/1024*5</f>
         <v>3.0419921875</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>626</v>
       </c>
-      <c r="C118">
-        <f t="shared" si="1"/>
+      <c r="C118" s="0" t="n">
+        <f aca="false">B118/1024*5</f>
         <v>3.056640625</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>627</v>
       </c>
-      <c r="C119">
-        <f t="shared" si="1"/>
+      <c r="C119" s="0" t="n">
+        <f aca="false">B119/1024*5</f>
         <v>3.0615234375</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>626</v>
       </c>
-      <c r="C120">
-        <f t="shared" si="1"/>
+      <c r="C120" s="0" t="n">
+        <f aca="false">B120/1024*5</f>
         <v>3.056640625</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>629</v>
       </c>
-      <c r="C121">
-        <f t="shared" si="1"/>
+      <c r="C121" s="0" t="n">
+        <f aca="false">B121/1024*5</f>
         <v>3.0712890625</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>632</v>
       </c>
-      <c r="C122">
-        <f t="shared" si="1"/>
+      <c r="C122" s="0" t="n">
+        <f aca="false">B122/1024*5</f>
         <v>3.0859375</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>631</v>
       </c>
-      <c r="C123">
-        <f t="shared" si="1"/>
+      <c r="C123" s="0" t="n">
+        <f aca="false">B123/1024*5</f>
         <v>3.0810546875</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>633</v>
       </c>
-      <c r="C124">
-        <f t="shared" si="1"/>
+      <c r="C124" s="0" t="n">
+        <f aca="false">B124/1024*5</f>
         <v>3.0908203125</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0" t="n">
         <v>636</v>
       </c>
-      <c r="C125">
-        <f t="shared" si="1"/>
+      <c r="C125" s="0" t="n">
+        <f aca="false">B125/1024*5</f>
         <v>3.10546875</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0" t="n">
         <v>636</v>
       </c>
-      <c r="C126">
-        <f t="shared" si="1"/>
+      <c r="C126" s="0" t="n">
+        <f aca="false">B126/1024*5</f>
         <v>3.10546875</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0" t="n">
         <v>636</v>
       </c>
-      <c r="C127">
-        <f t="shared" si="1"/>
+      <c r="C127" s="0" t="n">
+        <f aca="false">B127/1024*5</f>
         <v>3.10546875</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0" t="n">
         <v>638</v>
       </c>
-      <c r="C128">
-        <f t="shared" si="1"/>
+      <c r="C128" s="0" t="n">
+        <f aca="false">B128/1024*5</f>
         <v>3.115234375</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0" t="n">
         <v>641</v>
       </c>
-      <c r="C129">
-        <f t="shared" si="1"/>
+      <c r="C129" s="0" t="n">
+        <f aca="false">B129/1024*5</f>
         <v>3.1298828125</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="C130">
-        <f t="shared" si="1"/>
+      <c r="C130" s="0" t="n">
+        <f aca="false">B130/1024*5</f>
         <v>3.125</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0" t="n">
         <v>642</v>
       </c>
-      <c r="C131">
-        <f t="shared" ref="C131:C194" si="2">B131/1024*5</f>
+      <c r="C131" s="0" t="n">
+        <f aca="false">B131/1024*5</f>
         <v>3.134765625</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0" t="n">
         <v>645</v>
       </c>
-      <c r="C132">
-        <f t="shared" si="2"/>
+      <c r="C132" s="0" t="n">
+        <f aca="false">B132/1024*5</f>
         <v>3.1494140625</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0" t="n">
         <v>646</v>
       </c>
-      <c r="C133">
-        <f t="shared" si="2"/>
+      <c r="C133" s="0" t="n">
+        <f aca="false">B133/1024*5</f>
         <v>3.154296875</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0" t="n">
         <v>644</v>
       </c>
-      <c r="C134">
-        <f t="shared" si="2"/>
+      <c r="C134" s="0" t="n">
+        <f aca="false">B134/1024*5</f>
         <v>3.14453125</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0" t="n">
         <v>648</v>
       </c>
-      <c r="C135">
-        <f t="shared" si="2"/>
+      <c r="C135" s="0" t="n">
+        <f aca="false">B135/1024*5</f>
         <v>3.1640625</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0" t="n">
         <v>649</v>
       </c>
-      <c r="C136">
-        <f t="shared" si="2"/>
+      <c r="C136" s="0" t="n">
+        <f aca="false">B136/1024*5</f>
         <v>3.1689453125</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0" t="n">
         <v>649</v>
       </c>
-      <c r="C137">
-        <f t="shared" si="2"/>
+      <c r="C137" s="0" t="n">
+        <f aca="false">B137/1024*5</f>
         <v>3.1689453125</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0" t="n">
         <v>650</v>
       </c>
-      <c r="C138">
-        <f t="shared" si="2"/>
+      <c r="C138" s="0" t="n">
+        <f aca="false">B138/1024*5</f>
         <v>3.173828125</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0" t="n">
         <v>654</v>
       </c>
-      <c r="C139">
-        <f t="shared" si="2"/>
+      <c r="C139" s="0" t="n">
+        <f aca="false">B139/1024*5</f>
         <v>3.193359375</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0" t="n">
         <v>654</v>
       </c>
-      <c r="C140">
-        <f t="shared" si="2"/>
+      <c r="C140" s="0" t="n">
+        <f aca="false">B140/1024*5</f>
         <v>3.193359375</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0" t="n">
         <v>653</v>
       </c>
-      <c r="C141">
-        <f t="shared" si="2"/>
+      <c r="C141" s="0" t="n">
+        <f aca="false">B141/1024*5</f>
         <v>3.1884765625</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0" t="n">
         <v>657</v>
       </c>
-      <c r="C142">
-        <f t="shared" si="2"/>
+      <c r="C142" s="0" t="n">
+        <f aca="false">B142/1024*5</f>
         <v>3.2080078125</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0" t="n">
         <v>657</v>
       </c>
-      <c r="C143">
-        <f t="shared" si="2"/>
+      <c r="C143" s="0" t="n">
+        <f aca="false">B143/1024*5</f>
         <v>3.2080078125</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0" t="n">
         <v>656</v>
       </c>
-      <c r="C144">
-        <f t="shared" si="2"/>
+      <c r="C144" s="0" t="n">
+        <f aca="false">B144/1024*5</f>
         <v>3.203125</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0" t="n">
         <v>658</v>
       </c>
-      <c r="C145">
-        <f t="shared" si="2"/>
+      <c r="C145" s="0" t="n">
+        <f aca="false">B145/1024*5</f>
         <v>3.212890625</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0" t="n">
         <v>661</v>
       </c>
-      <c r="C146">
-        <f t="shared" si="2"/>
+      <c r="C146" s="0" t="n">
+        <f aca="false">B146/1024*5</f>
         <v>3.2275390625</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0" t="n">
         <v>662</v>
       </c>
-      <c r="C147">
-        <f t="shared" si="2"/>
+      <c r="C147" s="0" t="n">
+        <f aca="false">B147/1024*5</f>
         <v>3.232421875</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0" t="n">
         <v>661</v>
       </c>
-      <c r="C148">
-        <f t="shared" si="2"/>
+      <c r="C148" s="0" t="n">
+        <f aca="false">B148/1024*5</f>
         <v>3.2275390625</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0" t="n">
         <v>664</v>
       </c>
-      <c r="C149">
-        <f t="shared" si="2"/>
+      <c r="C149" s="0" t="n">
+        <f aca="false">B149/1024*5</f>
         <v>3.2421875</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0" t="n">
         <v>665</v>
       </c>
-      <c r="C150">
-        <f t="shared" si="2"/>
+      <c r="C150" s="0" t="n">
+        <f aca="false">B150/1024*5</f>
         <v>3.2470703125</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0" t="n">
         <v>664</v>
       </c>
-      <c r="C151">
-        <f t="shared" si="2"/>
+      <c r="C151" s="0" t="n">
+        <f aca="false">B151/1024*5</f>
         <v>3.2421875</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0" t="n">
         <v>666</v>
       </c>
-      <c r="C152">
-        <f t="shared" si="2"/>
+      <c r="C152" s="0" t="n">
+        <f aca="false">B152/1024*5</f>
         <v>3.251953125</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="C153">
-        <f t="shared" si="2"/>
+      <c r="C153" s="0" t="n">
+        <f aca="false">B153/1024*5</f>
         <v>3.26171875</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0" t="n">
         <v>669</v>
       </c>
-      <c r="C154">
-        <f t="shared" si="2"/>
+      <c r="C154" s="0" t="n">
+        <f aca="false">B154/1024*5</f>
         <v>3.2666015625</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0" t="n">
         <v>668</v>
       </c>
-      <c r="C155">
-        <f t="shared" si="2"/>
+      <c r="C155" s="0" t="n">
+        <f aca="false">B155/1024*5</f>
         <v>3.26171875</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0" t="n">
         <v>672</v>
       </c>
-      <c r="C156">
-        <f t="shared" si="2"/>
+      <c r="C156" s="0" t="n">
+        <f aca="false">B156/1024*5</f>
         <v>3.28125</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0" t="n">
         <v>672</v>
       </c>
-      <c r="C157">
-        <f t="shared" si="2"/>
+      <c r="C157" s="0" t="n">
+        <f aca="false">B157/1024*5</f>
         <v>3.28125</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0" t="n">
         <v>671</v>
       </c>
-      <c r="C158">
-        <f t="shared" si="2"/>
+      <c r="C158" s="0" t="n">
+        <f aca="false">B158/1024*5</f>
         <v>3.2763671875</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0" t="n">
         <v>673</v>
       </c>
-      <c r="C159">
-        <f t="shared" si="2"/>
+      <c r="C159" s="0" t="n">
+        <f aca="false">B159/1024*5</f>
         <v>3.2861328125</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0" t="n">
         <v>675</v>
       </c>
-      <c r="C160">
-        <f t="shared" si="2"/>
+      <c r="C160" s="0" t="n">
+        <f aca="false">B160/1024*5</f>
         <v>3.2958984375</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0" t="n">
         <v>676</v>
       </c>
-      <c r="C161">
-        <f t="shared" si="2"/>
+      <c r="C161" s="0" t="n">
+        <f aca="false">B161/1024*5</f>
         <v>3.30078125</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0" t="n">
         <v>675</v>
       </c>
-      <c r="C162">
-        <f t="shared" si="2"/>
+      <c r="C162" s="0" t="n">
+        <f aca="false">B162/1024*5</f>
         <v>3.2958984375</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0" t="n">
         <v>679</v>
       </c>
-      <c r="C163">
-        <f t="shared" si="2"/>
+      <c r="C163" s="0" t="n">
+        <f aca="false">B163/1024*5</f>
         <v>3.3154296875</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0" t="n">
         <v>679</v>
       </c>
-      <c r="C164">
-        <f t="shared" si="2"/>
+      <c r="C164" s="0" t="n">
+        <f aca="false">B164/1024*5</f>
         <v>3.3154296875</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0" t="n">
         <v>677</v>
       </c>
-      <c r="C165">
-        <f t="shared" si="2"/>
+      <c r="C165" s="0" t="n">
+        <f aca="false">B165/1024*5</f>
         <v>3.3056640625</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0" t="n">
         <v>681</v>
       </c>
-      <c r="C166">
-        <f t="shared" si="2"/>
+      <c r="C166" s="0" t="n">
+        <f aca="false">B166/1024*5</f>
         <v>3.3251953125</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0" t="n">
         <v>682</v>
       </c>
-      <c r="C167">
-        <f t="shared" si="2"/>
+      <c r="C167" s="0" t="n">
+        <f aca="false">B167/1024*5</f>
         <v>3.330078125</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0" t="n">
         <v>682</v>
       </c>
-      <c r="C168">
-        <f t="shared" si="2"/>
+      <c r="C168" s="0" t="n">
+        <f aca="false">B168/1024*5</f>
         <v>3.330078125</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0" t="n">
         <v>682</v>
       </c>
-      <c r="C169">
-        <f t="shared" si="2"/>
+      <c r="C169" s="0" t="n">
+        <f aca="false">B169/1024*5</f>
         <v>3.330078125</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0" t="n">
         <v>685</v>
       </c>
-      <c r="C170">
-        <f t="shared" si="2"/>
+      <c r="C170" s="0" t="n">
+        <f aca="false">B170/1024*5</f>
         <v>3.3447265625</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0" t="n">
         <v>686</v>
       </c>
-      <c r="C171">
-        <f t="shared" si="2"/>
+      <c r="C171" s="0" t="n">
+        <f aca="false">B171/1024*5</f>
         <v>3.349609375</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0" t="n">
         <v>683</v>
       </c>
-      <c r="C172">
-        <f t="shared" si="2"/>
+      <c r="C172" s="0" t="n">
+        <f aca="false">B172/1024*5</f>
         <v>3.3349609375</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0" t="n">
         <v>689</v>
       </c>
-      <c r="C173">
-        <f t="shared" si="2"/>
+      <c r="C173" s="0" t="n">
+        <f aca="false">B173/1024*5</f>
         <v>3.3642578125</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0" t="n">
         <v>688</v>
       </c>
-      <c r="C174">
-        <f t="shared" si="2"/>
+      <c r="C174" s="0" t="n">
+        <f aca="false">B174/1024*5</f>
         <v>3.359375</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0" t="n">
         <v>688</v>
       </c>
-      <c r="C175">
-        <f t="shared" si="2"/>
+      <c r="C175" s="0" t="n">
+        <f aca="false">B175/1024*5</f>
         <v>3.359375</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0" t="n">
         <v>688</v>
       </c>
-      <c r="C176">
-        <f t="shared" si="2"/>
+      <c r="C176" s="0" t="n">
+        <f aca="false">B176/1024*5</f>
         <v>3.359375</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0" t="n">
         <v>691</v>
       </c>
-      <c r="C177">
-        <f t="shared" si="2"/>
+      <c r="C177" s="0" t="n">
+        <f aca="false">B177/1024*5</f>
         <v>3.3740234375</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0" t="n">
         <v>691</v>
       </c>
-      <c r="C178">
-        <f t="shared" si="2"/>
+      <c r="C178" s="0" t="n">
+        <f aca="false">B178/1024*5</f>
         <v>3.3740234375</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0" t="n">
         <v>690</v>
       </c>
-      <c r="C179">
-        <f t="shared" si="2"/>
+      <c r="C179" s="0" t="n">
+        <f aca="false">B179/1024*5</f>
         <v>3.369140625</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="C180">
-        <f t="shared" si="2"/>
+      <c r="C180" s="0" t="n">
+        <f aca="false">B180/1024*5</f>
         <v>3.388671875</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="C181">
-        <f t="shared" si="2"/>
+      <c r="C181" s="0" t="n">
+        <f aca="false">B181/1024*5</f>
         <v>3.388671875</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0" t="n">
         <v>694</v>
       </c>
-      <c r="C182">
-        <f t="shared" si="2"/>
+      <c r="C182" s="0" t="n">
+        <f aca="false">B182/1024*5</f>
         <v>3.388671875</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0" t="n">
         <v>695</v>
       </c>
-      <c r="C183">
-        <f t="shared" si="2"/>
+      <c r="C183" s="0" t="n">
+        <f aca="false">B183/1024*5</f>
         <v>3.3935546875</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0" t="n">
         <v>697</v>
       </c>
-      <c r="C184">
-        <f t="shared" si="2"/>
+      <c r="C184" s="0" t="n">
+        <f aca="false">B184/1024*5</f>
         <v>3.4033203125</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0" t="n">
         <v>697</v>
       </c>
-      <c r="C185">
-        <f t="shared" si="2"/>
+      <c r="C185" s="0" t="n">
+        <f aca="false">B185/1024*5</f>
         <v>3.4033203125</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0" t="n">
         <v>696</v>
       </c>
-      <c r="C186">
-        <f t="shared" si="2"/>
+      <c r="C186" s="0" t="n">
+        <f aca="false">B186/1024*5</f>
         <v>3.3984375</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="C187">
-        <f t="shared" si="2"/>
+      <c r="C187" s="0" t="n">
+        <f aca="false">B187/1024*5</f>
         <v>3.41796875</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="C188">
-        <f t="shared" si="2"/>
+      <c r="C188" s="0" t="n">
+        <f aca="false">B188/1024*5</f>
         <v>3.41796875</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0" t="n">
         <v>699</v>
       </c>
-      <c r="C189">
-        <f t="shared" si="2"/>
+      <c r="C189" s="0" t="n">
+        <f aca="false">B189/1024*5</f>
         <v>3.4130859375</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0" t="n">
         <v>701</v>
       </c>
-      <c r="C190">
-        <f t="shared" si="2"/>
+      <c r="C190" s="0" t="n">
+        <f aca="false">B190/1024*5</f>
         <v>3.4228515625</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0" t="n">
         <v>702</v>
       </c>
-      <c r="C191">
-        <f t="shared" si="2"/>
+      <c r="C191" s="0" t="n">
+        <f aca="false">B191/1024*5</f>
         <v>3.427734375</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0" t="n">
         <v>703</v>
       </c>
-      <c r="C192">
-        <f t="shared" si="2"/>
+      <c r="C192" s="0" t="n">
+        <f aca="false">B192/1024*5</f>
         <v>3.4326171875</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0" t="n">
         <v>701</v>
       </c>
-      <c r="C193">
-        <f t="shared" si="2"/>
+      <c r="C193" s="0" t="n">
+        <f aca="false">B193/1024*5</f>
         <v>3.4228515625</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="C194">
-        <f t="shared" si="2"/>
+      <c r="C194" s="0" t="n">
+        <f aca="false">B194/1024*5</f>
         <v>3.4423828125</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0" t="n">
         <v>705</v>
       </c>
-      <c r="C195">
-        <f t="shared" ref="C195:C257" si="3">B195/1024*5</f>
+      <c r="C195" s="0" t="n">
+        <f aca="false">B195/1024*5</f>
         <v>3.4423828125</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0" t="n">
         <v>704</v>
       </c>
-      <c r="C196">
-        <f t="shared" si="3"/>
+      <c r="C196" s="0" t="n">
+        <f aca="false">B196/1024*5</f>
         <v>3.4375</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0" t="n">
         <v>707</v>
       </c>
-      <c r="C197">
-        <f t="shared" si="3"/>
+      <c r="C197" s="0" t="n">
+        <f aca="false">B197/1024*5</f>
         <v>3.4521484375</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0" t="n">
         <v>707</v>
       </c>
-      <c r="C198">
-        <f t="shared" si="3"/>
+      <c r="C198" s="0" t="n">
+        <f aca="false">B198/1024*5</f>
         <v>3.4521484375</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0" t="n">
         <v>708</v>
       </c>
-      <c r="C199">
-        <f t="shared" si="3"/>
+      <c r="C199" s="0" t="n">
+        <f aca="false">B199/1024*5</f>
         <v>3.45703125</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0" t="n">
         <v>706</v>
       </c>
-      <c r="C200">
-        <f t="shared" si="3"/>
+      <c r="C200" s="0" t="n">
+        <f aca="false">B200/1024*5</f>
         <v>3.447265625</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0" t="n">
         <v>710</v>
       </c>
-      <c r="C201">
-        <f t="shared" si="3"/>
+      <c r="C201" s="0" t="n">
+        <f aca="false">B201/1024*5</f>
         <v>3.466796875</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0" t="n">
         <v>710</v>
       </c>
-      <c r="C202">
-        <f t="shared" si="3"/>
+      <c r="C202" s="0" t="n">
+        <f aca="false">B202/1024*5</f>
         <v>3.466796875</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0" t="n">
         <v>709</v>
       </c>
-      <c r="C203">
-        <f t="shared" si="3"/>
+      <c r="C203" s="0" t="n">
+        <f aca="false">B203/1024*5</f>
         <v>3.4619140625</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0" t="n">
         <v>712</v>
       </c>
-      <c r="C204">
-        <f t="shared" si="3"/>
+      <c r="C204" s="0" t="n">
+        <f aca="false">B204/1024*5</f>
         <v>3.4765625</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0" t="n">
         <v>713</v>
       </c>
-      <c r="C205">
-        <f t="shared" si="3"/>
+      <c r="C205" s="0" t="n">
+        <f aca="false">B205/1024*5</f>
         <v>3.4814453125</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0" t="n">
         <v>713</v>
       </c>
-      <c r="C206">
-        <f t="shared" si="3"/>
+      <c r="C206" s="0" t="n">
+        <f aca="false">B206/1024*5</f>
         <v>3.4814453125</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0" t="n">
         <v>712</v>
       </c>
-      <c r="C207">
-        <f t="shared" si="3"/>
+      <c r="C207" s="0" t="n">
+        <f aca="false">B207/1024*5</f>
         <v>3.4765625</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0" t="n">
         <v>715</v>
       </c>
-      <c r="C208">
-        <f t="shared" si="3"/>
+      <c r="C208" s="0" t="n">
+        <f aca="false">B208/1024*5</f>
         <v>3.4912109375</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0" t="n">
         <v>715</v>
       </c>
-      <c r="C209">
-        <f t="shared" si="3"/>
+      <c r="C209" s="0" t="n">
+        <f aca="false">B209/1024*5</f>
         <v>3.4912109375</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0" t="n">
         <v>713</v>
       </c>
-      <c r="C210">
-        <f t="shared" si="3"/>
+      <c r="C210" s="0" t="n">
+        <f aca="false">B210/1024*5</f>
         <v>3.4814453125</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0" t="n">
         <v>717</v>
       </c>
-      <c r="C211">
-        <f t="shared" si="3"/>
+      <c r="C211" s="0" t="n">
+        <f aca="false">B211/1024*5</f>
         <v>3.5009765625</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0" t="n">
         <v>717</v>
       </c>
-      <c r="C212">
-        <f t="shared" si="3"/>
+      <c r="C212" s="0" t="n">
+        <f aca="false">B212/1024*5</f>
         <v>3.5009765625</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0" t="n">
         <v>718</v>
       </c>
-      <c r="C213">
-        <f t="shared" si="3"/>
+      <c r="C213" s="0" t="n">
+        <f aca="false">B213/1024*5</f>
         <v>3.505859375</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0" t="n">
         <v>718</v>
       </c>
-      <c r="C214">
-        <f t="shared" si="3"/>
+      <c r="C214" s="0" t="n">
+        <f aca="false">B214/1024*5</f>
         <v>3.505859375</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0" t="n">
         <v>719</v>
       </c>
-      <c r="C215">
-        <f t="shared" si="3"/>
+      <c r="C215" s="0" t="n">
+        <f aca="false">B215/1024*5</f>
         <v>3.5107421875</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0" t="n">
         <v>720</v>
       </c>
-      <c r="C216">
-        <f t="shared" si="3"/>
+      <c r="C216" s="0" t="n">
+        <f aca="false">B216/1024*5</f>
         <v>3.515625</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0" t="n">
         <v>717</v>
       </c>
-      <c r="C217">
-        <f t="shared" si="3"/>
+      <c r="C217" s="0" t="n">
+        <f aca="false">B217/1024*5</f>
         <v>3.5009765625</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0" t="n">
         <v>722</v>
       </c>
-      <c r="C218">
-        <f t="shared" si="3"/>
+      <c r="C218" s="0" t="n">
+        <f aca="false">B218/1024*5</f>
         <v>3.525390625</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0" t="n">
         <v>722</v>
       </c>
-      <c r="C219">
-        <f t="shared" si="3"/>
+      <c r="C219" s="0" t="n">
+        <f aca="false">B219/1024*5</f>
         <v>3.525390625</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0" t="n">
         <v>722</v>
       </c>
-      <c r="C220">
-        <f t="shared" si="3"/>
+      <c r="C220" s="0" t="n">
+        <f aca="false">B220/1024*5</f>
         <v>3.525390625</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0" t="n">
         <v>723</v>
       </c>
-      <c r="C221">
-        <f t="shared" si="3"/>
+      <c r="C221" s="0" t="n">
+        <f aca="false">B221/1024*5</f>
         <v>3.5302734375</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0" t="n">
         <v>724</v>
       </c>
-      <c r="C222">
-        <f t="shared" si="3"/>
+      <c r="C222" s="0" t="n">
+        <f aca="false">B222/1024*5</f>
         <v>3.53515625</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0" t="n">
         <v>724</v>
       </c>
-      <c r="C223">
-        <f t="shared" si="3"/>
+      <c r="C223" s="0" t="n">
+        <f aca="false">B223/1024*5</f>
         <v>3.53515625</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0" t="n">
         <v>722</v>
       </c>
-      <c r="C224">
-        <f t="shared" si="3"/>
+      <c r="C224" s="0" t="n">
+        <f aca="false">B224/1024*5</f>
         <v>3.525390625</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0" t="n">
         <v>726</v>
       </c>
-      <c r="C225">
-        <f t="shared" si="3"/>
+      <c r="C225" s="0" t="n">
+        <f aca="false">B225/1024*5</f>
         <v>3.544921875</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0" t="n">
         <v>726</v>
       </c>
-      <c r="C226">
-        <f t="shared" si="3"/>
+      <c r="C226" s="0" t="n">
+        <f aca="false">B226/1024*5</f>
         <v>3.544921875</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0" t="n">
         <v>726</v>
       </c>
-      <c r="C227">
-        <f t="shared" si="3"/>
+      <c r="C227" s="0" t="n">
+        <f aca="false">B227/1024*5</f>
         <v>3.544921875</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0" t="n">
         <v>728</v>
       </c>
-      <c r="C228">
-        <f t="shared" si="3"/>
+      <c r="C228" s="0" t="n">
+        <f aca="false">B228/1024*5</f>
         <v>3.5546875</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0" t="n">
         <v>728</v>
       </c>
-      <c r="C229">
-        <f t="shared" si="3"/>
+      <c r="C229" s="0" t="n">
+        <f aca="false">B229/1024*5</f>
         <v>3.5546875</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0" t="n">
         <v>729</v>
       </c>
-      <c r="C230">
-        <f t="shared" si="3"/>
+      <c r="C230" s="0" t="n">
+        <f aca="false">B230/1024*5</f>
         <v>3.5595703125</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0" t="n">
         <v>727</v>
       </c>
-      <c r="C231">
-        <f t="shared" si="3"/>
+      <c r="C231" s="0" t="n">
+        <f aca="false">B231/1024*5</f>
         <v>3.5498046875</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0" t="n">
         <v>730</v>
       </c>
-      <c r="C232">
-        <f t="shared" si="3"/>
+      <c r="C232" s="0" t="n">
+        <f aca="false">B232/1024*5</f>
         <v>3.564453125</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0" t="n">
         <v>730</v>
       </c>
-      <c r="C233">
-        <f t="shared" si="3"/>
+      <c r="C233" s="0" t="n">
+        <f aca="false">B233/1024*5</f>
         <v>3.564453125</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0" t="n">
         <v>730</v>
       </c>
-      <c r="C234">
-        <f t="shared" si="3"/>
+      <c r="C234" s="0" t="n">
+        <f aca="false">B234/1024*5</f>
         <v>3.564453125</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="C235">
-        <f t="shared" si="3"/>
+      <c r="C235" s="0" t="n">
+        <f aca="false">B235/1024*5</f>
         <v>3.57421875</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="C236">
-        <f t="shared" si="3"/>
+      <c r="C236" s="0" t="n">
+        <f aca="false">B236/1024*5</f>
         <v>3.57421875</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0" t="n">
         <v>733</v>
       </c>
-      <c r="C237">
-        <f t="shared" si="3"/>
+      <c r="C237" s="0" t="n">
+        <f aca="false">B237/1024*5</f>
         <v>3.5791015625</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0" t="n">
         <v>732</v>
       </c>
-      <c r="C238">
-        <f t="shared" si="3"/>
+      <c r="C238" s="0" t="n">
+        <f aca="false">B238/1024*5</f>
         <v>3.57421875</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0" t="n">
         <v>734</v>
       </c>
-      <c r="C239">
-        <f t="shared" si="3"/>
+      <c r="C239" s="0" t="n">
+        <f aca="false">B239/1024*5</f>
         <v>3.583984375</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0" t="n">
         <v>734</v>
       </c>
-      <c r="C240">
-        <f t="shared" si="3"/>
+      <c r="C240" s="0" t="n">
+        <f aca="false">B240/1024*5</f>
         <v>3.583984375</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0" t="n">
         <v>734</v>
       </c>
-      <c r="C241">
-        <f t="shared" si="3"/>
+      <c r="C241" s="0" t="n">
+        <f aca="false">B241/1024*5</f>
         <v>3.583984375</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0" t="n">
         <v>735</v>
       </c>
-      <c r="C242">
-        <f t="shared" si="3"/>
+      <c r="C242" s="0" t="n">
+        <f aca="false">B242/1024*5</f>
         <v>3.5888671875</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0" t="n">
         <v>736</v>
       </c>
-      <c r="C243">
-        <f t="shared" si="3"/>
+      <c r="C243" s="0" t="n">
+        <f aca="false">B243/1024*5</f>
         <v>3.59375</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0" t="n">
         <v>736</v>
       </c>
-      <c r="C244">
-        <f t="shared" si="3"/>
+      <c r="C244" s="0" t="n">
+        <f aca="false">B244/1024*5</f>
         <v>3.59375</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0" t="n">
         <v>737</v>
       </c>
-      <c r="C245">
-        <f t="shared" si="3"/>
+      <c r="C245" s="0" t="n">
+        <f aca="false">B245/1024*5</f>
         <v>3.5986328125</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0" t="n">
         <v>738</v>
       </c>
-      <c r="C246">
-        <f t="shared" si="3"/>
+      <c r="C246" s="0" t="n">
+        <f aca="false">B246/1024*5</f>
         <v>3.603515625</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0" t="n">
         <v>738</v>
       </c>
-      <c r="C247">
-        <f t="shared" si="3"/>
+      <c r="C247" s="0" t="n">
+        <f aca="false">B247/1024*5</f>
         <v>3.603515625</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0" t="n">
         <v>739</v>
       </c>
-      <c r="C248">
-        <f t="shared" si="3"/>
+      <c r="C248" s="0" t="n">
+        <f aca="false">B248/1024*5</f>
         <v>3.6083984375</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0" t="n">
         <v>739</v>
       </c>
-      <c r="C249">
-        <f t="shared" si="3"/>
+      <c r="C249" s="0" t="n">
+        <f aca="false">B249/1024*5</f>
         <v>3.6083984375</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0" t="n">
         <v>740</v>
       </c>
-      <c r="C250">
-        <f t="shared" si="3"/>
+      <c r="C250" s="0" t="n">
+        <f aca="false">B250/1024*5</f>
         <v>3.61328125</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0" t="n">
         <v>740</v>
       </c>
-      <c r="C251">
-        <f t="shared" si="3"/>
+      <c r="C251" s="0" t="n">
+        <f aca="false">B251/1024*5</f>
         <v>3.61328125</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0" t="n">
         <v>741</v>
       </c>
-      <c r="C252">
-        <f t="shared" si="3"/>
+      <c r="C252" s="0" t="n">
+        <f aca="false">B252/1024*5</f>
         <v>3.6181640625</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0" t="n">
         <v>741</v>
       </c>
-      <c r="C253">
-        <f t="shared" si="3"/>
+      <c r="C253" s="0" t="n">
+        <f aca="false">B253/1024*5</f>
         <v>3.6181640625</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0" t="n">
         <v>742</v>
       </c>
-      <c r="C254">
-        <f t="shared" si="3"/>
+      <c r="C254" s="0" t="n">
+        <f aca="false">B254/1024*5</f>
         <v>3.623046875</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0" t="n">
         <v>742</v>
       </c>
-      <c r="C255">
-        <f t="shared" si="3"/>
+      <c r="C255" s="0" t="n">
+        <f aca="false">B255/1024*5</f>
         <v>3.623046875</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0" t="n">
         <v>743</v>
       </c>
-      <c r="C256">
-        <f t="shared" si="3"/>
+      <c r="C256" s="0" t="n">
+        <f aca="false">B256/1024*5</f>
         <v>3.6279296875</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0" t="n">
         <v>743</v>
       </c>
-      <c r="C257">
-        <f t="shared" si="3"/>
+      <c r="C257" s="0" t="n">
+        <f aca="false">B257/1024*5</f>
         <v>3.6279296875</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/part1/Deliverables/D2/steadystate.xlsx
+++ b/report/part1/Deliverables/D2/steadystate.xlsx
@@ -17,10 +17,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>PWM</t>
+    <t>LED</t>
   </si>
   <si>
-    <t>ADC 0 to 1024</t>
+    <t>LDR</t>
   </si>
   <si>
     <t>Volts</t>
@@ -33,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -58,20 +58,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -230,6 +222,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>steadystate!$A$2:$A$257</c:f>
@@ -1014,154 +1015,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>0.009765625</c:v>
+                  <c:v>0.0146484375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.068359375</c:v>
+                  <c:v>0.0146484375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1611328125</c:v>
+                  <c:v>0.244140625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2734375</c:v>
+                  <c:v>0.390625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3759765625</c:v>
+                  <c:v>0.5078125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4736328125</c:v>
+                  <c:v>0.615234375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56640625</c:v>
+                  <c:v>0.7080078125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6591796875</c:v>
+                  <c:v>0.791015625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7421875</c:v>
+                  <c:v>0.869140625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8203125</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8935546875</c:v>
+                  <c:v>1.0107421875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9619140625</c:v>
+                  <c:v>1.0693359375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0302734375</c:v>
+                  <c:v>1.1328125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.09375</c:v>
+                  <c:v>1.1865234375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.15234375</c:v>
+                  <c:v>1.2548828125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2109375</c:v>
+                  <c:v>1.298828125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2646484375</c:v>
+                  <c:v>1.3427734375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3134765625</c:v>
+                  <c:v>1.3916015625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3671875</c:v>
+                  <c:v>1.4404296875</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.416015625</c:v>
+                  <c:v>1.4794921875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4599609375</c:v>
+                  <c:v>1.5234375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4990234375</c:v>
+                  <c:v>1.5576171875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.54296875</c:v>
+                  <c:v>1.6015625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.58203125</c:v>
+                  <c:v>1.6357421875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.62109375</c:v>
+                  <c:v>1.6748046875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.66015625</c:v>
+                  <c:v>1.708984375</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6943359375</c:v>
+                  <c:v>1.73828125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7333984375</c:v>
+                  <c:v>1.7724609375</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7626953125</c:v>
+                  <c:v>1.8017578125</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.796875</c:v>
+                  <c:v>1.8310546875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.826171875</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8505859375</c:v>
+                  <c:v>1.904296875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8896484375</c:v>
+                  <c:v>1.9189453125</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9189453125</c:v>
+                  <c:v>1.9482421875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.953125</c:v>
+                  <c:v>1.97265625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.97265625</c:v>
+                  <c:v>1.9970703125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.001953125</c:v>
+                  <c:v>2.021484375</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0263671875</c:v>
+                  <c:v>2.0458984375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.041015625</c:v>
+                  <c:v>2.0703125</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0751953125</c:v>
+                  <c:v>2.0947265625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.099609375</c:v>
+                  <c:v>2.119140625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.12890625</c:v>
+                  <c:v>2.138671875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1435546875</c:v>
+                  <c:v>2.158203125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1728515625</c:v>
+                  <c:v>2.177734375</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1875</c:v>
+                  <c:v>2.2021484375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2021484375</c:v>
+                  <c:v>2.216796875</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2314453125</c:v>
+                  <c:v>2.2509765625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2509765625</c:v>
+                  <c:v>2.2705078125</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2705078125</c:v>
+                  <c:v>2.2900390625</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.2900390625</c:v>
+                  <c:v>2.2998046875</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>2.314453125</c:v>
@@ -1170,232 +1171,232 @@
                   <c:v>2.333984375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3388671875</c:v>
+                  <c:v>2.3486328125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.36328125</c:v>
+                  <c:v>2.3681640625</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>2.3828125</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.3974609375</c:v>
+                  <c:v>2.40234375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.412109375</c:v>
+                  <c:v>2.4169921875</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>2.431640625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.4560546875</c:v>
+                  <c:v>2.4462890625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.4560546875</c:v>
+                  <c:v>2.4609375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.48046875</c:v>
+                  <c:v>2.4755859375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.4951171875</c:v>
+                  <c:v>2.4853515625</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>2.5048828125</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.51953125</c:v>
+                  <c:v>2.529296875</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.5390625</c:v>
+                  <c:v>2.5439453125</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>2.55859375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.55859375</c:v>
+                  <c:v>2.5732421875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5830078125</c:v>
+                  <c:v>2.5732421875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5927734375</c:v>
+                  <c:v>2.587890625</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>2.6025390625</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.6171875</c:v>
+                  <c:v>2.6123046875</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.6318359375</c:v>
+                  <c:v>2.626953125</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>2.63671875</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>2.646484375</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.6513671875</c:v>
-                </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.666015625</c:v>
+                  <c:v>2.6611328125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.685546875</c:v>
+                  <c:v>2.6708984375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.685546875</c:v>
+                  <c:v>2.6806640625</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>2.6904296875</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>2.7001953125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.71484375</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2.7294921875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.7294921875</c:v>
+                  <c:v>2.7392578125</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>2.7490234375</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>2.763671875</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>2.7685546875</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.763671875</c:v>
-                </c:pt>
                 <c:pt idx="84">
+                  <c:v>2.7685546875</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>2.7783203125</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.79296875</c:v>
-                </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.802734375</c:v>
+                  <c:v>2.7880859375</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.802734375</c:v>
+                  <c:v>2.7978515625</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>2.8076171875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8173828125</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>2.822265625</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.8369140625</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.8271484375</c:v>
-                </c:pt>
                 <c:pt idx="91">
+                  <c:v>2.83203125</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>2.8466796875</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>2.8564453125</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.8662109375</c:v>
-                </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.87109375</c:v>
+                  <c:v>2.861328125</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.8857421875</c:v>
+                  <c:v>2.880859375</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>2.890625</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>2.900390625</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.8955078125</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>2.91015625</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>2.919921875</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>2.9248046875</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
+                  <c:v>2.9248046875</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>2.9296875</c:v>
                 </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.9345703125</c:v>
-                </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
+                  <c:v>2.939453125</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>2.9443359375</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
+                  <c:v>2.9541015625</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>2.958984375</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>2.94921875</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2.96875</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.9833984375</c:v>
-                </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.9833984375</c:v>
+                  <c:v>2.978515625</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>2.98828125</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.0029296875</c:v>
+                  <c:v>2.998046875</c:v>
                 </c:pt>
                 <c:pt idx="110">
+                  <c:v>3.0078125</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.998046875</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.0078125</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>3.0126953125</c:v>
                 </c:pt>
-                <c:pt idx="111">
-                  <c:v>3.0078125</c:v>
-                </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="114">
+                  <c:v>3.017578125</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>3.0224609375</c:v>
                 </c:pt>
-                <c:pt idx="113">
-                  <c:v>3.037109375</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3.037109375</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>3.0419921875</c:v>
-                </c:pt>
                 <c:pt idx="116">
+                  <c:v>3.046875</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>3.056640625</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>3.0615234375</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3.056640625</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>3.0712890625</c:v>
                 </c:pt>
                 <c:pt idx="120">
+                  <c:v>3.076171875</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.06640625</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.0712890625</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.0810546875</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>3.0859375</c:v>
                 </c:pt>
-                <c:pt idx="121">
-                  <c:v>3.0810546875</c:v>
-                </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="125">
                   <c:v>3.0908203125</c:v>
                 </c:pt>
-                <c:pt idx="123">
-                  <c:v>3.10546875</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3.10546875</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3.10546875</c:v>
-                </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.115234375</c:v>
+                  <c:v>3.1103515625</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.1298828125</c:v>
+                  <c:v>3.1201171875</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>3.125</c:v>
@@ -1404,393 +1405,393 @@
                   <c:v>3.134765625</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.1494140625</c:v>
+                  <c:v>3.134765625</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.154296875</c:v>
+                  <c:v>3.1298828125</c:v>
                 </c:pt>
                 <c:pt idx="132">
+                  <c:v>3.134765625</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.1396484375</c:v>
+                </c:pt>
+                <c:pt idx="134">
                   <c:v>3.14453125</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="135">
                   <c:v>3.1640625</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="136">
                   <c:v>3.1689453125</c:v>
                 </c:pt>
-                <c:pt idx="135">
-                  <c:v>3.1689453125</c:v>
-                </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>3.173828125</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.193359375</c:v>
-                </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.193359375</c:v>
+                  <c:v>3.18359375</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>3.1884765625</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.2080078125</c:v>
+                  <c:v>3.1982421875</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.2080078125</c:v>
+                  <c:v>3.1884765625</c:v>
                 </c:pt>
                 <c:pt idx="142">
+                  <c:v>3.193359375</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.1982421875</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>3.203125</c:v>
                 </c:pt>
-                <c:pt idx="143">
-                  <c:v>3.212890625</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3.2275390625</c:v>
-                </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.232421875</c:v>
+                  <c:v>3.2177734375</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>3.2275390625</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.2421875</c:v>
+                  <c:v>3.2275390625</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.2470703125</c:v>
+                  <c:v>3.2373046875</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>3.2421875</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.251953125</c:v>
+                  <c:v>3.2470703125</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.26171875</c:v>
+                  <c:v>3.2373046875</c:v>
                 </c:pt>
                 <c:pt idx="152">
+                  <c:v>3.2421875</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.2470703125</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>3.2666015625</c:v>
                 </c:pt>
-                <c:pt idx="153">
-                  <c:v>3.26171875</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3.28125</c:v>
-                </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.28125</c:v>
+                  <c:v>3.271484375</c:v>
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>3.2763671875</c:v>
                 </c:pt>
                 <c:pt idx="157">
+                  <c:v>3.28125</c:v>
+                </c:pt>
+                <c:pt idx="158">
                   <c:v>3.2861328125</c:v>
                 </c:pt>
-                <c:pt idx="158">
-                  <c:v>3.2958984375</c:v>
-                </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.30078125</c:v>
+                  <c:v>3.291015625</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>3.2958984375</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>3.2861328125</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.291015625</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.291015625</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.310546875</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>3.3154296875</c:v>
                 </c:pt>
-                <c:pt idx="162">
-                  <c:v>3.3154296875</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>3.3056640625</c:v>
-                </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="166">
+                  <c:v>3.3203125</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>3.3251953125</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="168">
                   <c:v>3.330078125</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="169">
+                  <c:v>3.33984375</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.3251953125</c:v>
+                </c:pt>
+                <c:pt idx="171">
                   <c:v>3.330078125</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>3.330078125</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3.3447265625</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>3.349609375</c:v>
-                </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="172">
                   <c:v>3.3349609375</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="173">
+                  <c:v>3.3349609375</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.3544921875</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.359375</c:v>
+                </c:pt>
+                <c:pt idx="176">
                   <c:v>3.3642578125</c:v>
                 </c:pt>
-                <c:pt idx="172">
-                  <c:v>3.359375</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>3.359375</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3.359375</c:v>
-                </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="177">
+                  <c:v>3.3642578125</c:v>
+                </c:pt>
+                <c:pt idx="178">
                   <c:v>3.3740234375</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="179">
                   <c:v>3.3740234375</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="180">
                   <c:v>3.369140625</c:v>
                 </c:pt>
-                <c:pt idx="178">
-                  <c:v>3.388671875</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>3.388671875</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3.388671875</c:v>
-                </c:pt>
                 <c:pt idx="181">
+                  <c:v>3.369140625</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.369140625</c:v>
+                </c:pt>
+                <c:pt idx="183">
                   <c:v>3.3935546875</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>3.4033203125</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3.4033203125</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>3.3984375</c:v>
                 </c:pt>
                 <c:pt idx="185">
+                  <c:v>3.3984375</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.4033203125</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.408203125</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.408203125</c:v>
+                </c:pt>
+                <c:pt idx="189">
                   <c:v>3.41796875</c:v>
                 </c:pt>
-                <c:pt idx="186">
-                  <c:v>3.41796875</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>3.4130859375</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>3.4228515625</c:v>
-                </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
+                  <c:v>3.408203125</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.408203125</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.408203125</c:v>
+                </c:pt>
+                <c:pt idx="193">
                   <c:v>3.427734375</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="194">
                   <c:v>3.4326171875</c:v>
                 </c:pt>
-                <c:pt idx="191">
-                  <c:v>3.4228515625</c:v>
-                </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="195">
+                  <c:v>3.4375</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.4375</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>3.4423828125</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>3.4423828125</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>3.4375</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>3.4521484375</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>3.4521484375</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>3.45703125</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>3.447265625</c:v>
                 </c:pt>
                 <c:pt idx="199">
+                  <c:v>3.4521484375</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.4423828125</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.4423828125</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.45703125</c:v>
+                </c:pt>
+                <c:pt idx="203">
                   <c:v>3.466796875</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="204">
                   <c:v>3.466796875</c:v>
                 </c:pt>
-                <c:pt idx="201">
-                  <c:v>3.4619140625</c:v>
-                </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="205">
+                  <c:v>3.466796875</c:v>
+                </c:pt>
+                <c:pt idx="206">
                   <c:v>3.4765625</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="207">
                   <c:v>3.4814453125</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>3.4814453125</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>3.4765625</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>3.4912109375</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>3.4912109375</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>3.4814453125</c:v>
                 </c:pt>
                 <c:pt idx="209">
+                  <c:v>3.4814453125</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.4765625</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.4716796875</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.49609375</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.49609375</c:v>
+                </c:pt>
+                <c:pt idx="214">
                   <c:v>3.5009765625</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>3.5009765625</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>3.505859375</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>3.505859375</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>3.5107421875</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>3.515625</c:v>
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>3.5009765625</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.525390625</c:v>
+                  <c:v>3.5009765625</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.525390625</c:v>
+                  <c:v>3.505859375</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.525390625</c:v>
+                  <c:v>3.515625</c:v>
                 </c:pt>
                 <c:pt idx="219">
+                  <c:v>3.515625</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.505859375</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.5205078125</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.5205078125</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>3.5302734375</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="224">
+                  <c:v>3.5302734375</c:v>
+                </c:pt>
+                <c:pt idx="225">
                   <c:v>3.53515625</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="226">
+                  <c:v>3.5400390625</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>3.53515625</c:v>
                 </c:pt>
-                <c:pt idx="222">
-                  <c:v>3.525390625</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>3.544921875</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>3.544921875</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>3.544921875</c:v>
-                </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="228">
+                  <c:v>3.5400390625</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.5400390625</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.53515625</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.5498046875</c:v>
+                </c:pt>
+                <c:pt idx="232">
                   <c:v>3.5546875</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="233">
                   <c:v>3.5546875</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="234">
                   <c:v>3.5595703125</c:v>
                 </c:pt>
-                <c:pt idx="229">
-                  <c:v>3.5498046875</c:v>
-                </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="235">
+                  <c:v>3.5595703125</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>3.564453125</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="237">
                   <c:v>3.564453125</c:v>
                 </c:pt>
-                <c:pt idx="232">
-                  <c:v>3.564453125</c:v>
-                </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="238">
                   <c:v>3.57421875</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="239">
                   <c:v>3.57421875</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="240">
+                  <c:v>3.5595703125</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>3.5791015625</c:v>
                 </c:pt>
-                <c:pt idx="236">
-                  <c:v>3.57421875</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>3.583984375</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>3.583984375</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>3.583984375</c:v>
-                </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="242">
+                  <c:v>3.5791015625</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.5791015625</c:v>
+                </c:pt>
+                <c:pt idx="244">
                   <c:v>3.5888671875</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="245">
+                  <c:v>3.5888671875</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>3.59375</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="247">
                   <c:v>3.59375</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="248">
                   <c:v>3.5986328125</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="249">
+                  <c:v>3.5986328125</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>3.603515625</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="251">
                   <c:v>3.603515625</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="252">
+                  <c:v>3.603515625</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>3.6083984375</c:v>
                 </c:pt>
-                <c:pt idx="247">
-                  <c:v>3.6083984375</c:v>
-                </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="254">
                   <c:v>3.61328125</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="255">
                   <c:v>3.61328125</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>3.6181640625</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>3.6181640625</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>3.623046875</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>3.623046875</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>3.6279296875</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>3.6279296875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="4132322"/>
-        <c:axId val="56642760"/>
+        <c:axId val="34406132"/>
+        <c:axId val="44060149"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4132322"/>
+        <c:axId val="34406132"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -1832,11 +1833,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="56642760"/>
+        <c:crossAx val="44060149"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56642760"/>
+        <c:axId val="44060149"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1887,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="4132322"/>
+        <c:crossAx val="34406132"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1915,29 +1916,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Steady State Response with ADC values</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1952,7 +1930,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADC 0 to 1024</c:v>
+                  <c:v>LDR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1968,6 +1946,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>steadystate!$A$2:$A$257</c:f>
@@ -2752,154 +2739,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>168</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>183</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>197</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>211</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>224</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>236</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>248</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>259</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>269</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>280</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>290</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>299</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>307</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>316</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>324</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>332</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>340</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>347</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>355</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>361</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>368</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>374</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>379</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>387</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>393</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>400</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>404</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>410</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>415</c:v>
+                  <c:v>419</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>418</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>425</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>430</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>436</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>439</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>445</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>448</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>451</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>457</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>461</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>465</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>469</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>474</c:v>
@@ -2908,232 +2895,232 @@
                   <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>479</c:v>
+                  <c:v>481</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>484</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>491</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>494</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>503</c:v>
+                  <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>503</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>508</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>511</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>516</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>520</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>524</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>524</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>529</c:v>
+                  <c:v>527</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>531</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>536</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>539</c:v>
+                  <c:v>538</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>542</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>543</c:v>
-                </c:pt>
                 <c:pt idx="74">
-                  <c:v>546</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>550</c:v>
+                  <c:v>547</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>550</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="77">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>556</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>559</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>559</c:v>
+                  <c:v>561</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>567</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>566</c:v>
-                </c:pt>
                 <c:pt idx="84">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>569</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>572</c:v>
-                </c:pt>
                 <c:pt idx="86">
-                  <c:v>574</c:v>
+                  <c:v>571</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>574</c:v>
+                  <c:v>573</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>578</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>579</c:v>
-                </c:pt>
                 <c:pt idx="91">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>583</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>585</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>587</c:v>
-                </c:pt>
                 <c:pt idx="94">
-                  <c:v>588</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>591</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="96">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>593</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="99">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>599</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="101">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>603</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>606</c:v>
                 </c:pt>
-                <c:pt idx="104">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>611</c:v>
-                </c:pt>
                 <c:pt idx="107">
-                  <c:v>611</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>615</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="110">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>617</c:v>
                 </c:pt>
-                <c:pt idx="111">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="114">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>619</c:v>
                 </c:pt>
-                <c:pt idx="113">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>623</c:v>
-                </c:pt>
                 <c:pt idx="116">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>626</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>626</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>629</c:v>
                 </c:pt>
                 <c:pt idx="120">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>632</c:v>
                 </c:pt>
-                <c:pt idx="121">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="125">
                   <c:v>633</c:v>
                 </c:pt>
-                <c:pt idx="123">
-                  <c:v>636</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>636</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>636</c:v>
-                </c:pt>
                 <c:pt idx="126">
-                  <c:v>638</c:v>
+                  <c:v>637</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>641</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>640</c:v>
@@ -3142,393 +3129,393 @@
                   <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>645</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>646</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="132">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="134">
                   <c:v>644</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="135">
                   <c:v>648</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="136">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="135">
-                  <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>650</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>654</c:v>
-                </c:pt>
                 <c:pt idx="138">
-                  <c:v>654</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>657</c:v>
+                  <c:v>655</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>657</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="142">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="144">
                   <c:v>656</c:v>
                 </c:pt>
-                <c:pt idx="143">
-                  <c:v>658</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>661</c:v>
-                </c:pt>
                 <c:pt idx="145">
-                  <c:v>662</c:v>
+                  <c:v>659</c:v>
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>664</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>665</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="149">
                   <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>666</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>668</c:v>
+                  <c:v>663</c:v>
                 </c:pt>
                 <c:pt idx="152">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>669</c:v>
                 </c:pt>
-                <c:pt idx="153">
-                  <c:v>668</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>672</c:v>
-                </c:pt>
                 <c:pt idx="155">
-                  <c:v>672</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="157">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="158">
                   <c:v>673</c:v>
                 </c:pt>
-                <c:pt idx="158">
-                  <c:v>675</c:v>
-                </c:pt>
                 <c:pt idx="159">
-                  <c:v>676</c:v>
+                  <c:v>674</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="161">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>679</c:v>
                 </c:pt>
-                <c:pt idx="162">
-                  <c:v>679</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>677</c:v>
-                </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="166">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="167">
                   <c:v>681</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="168">
                   <c:v>682</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="169">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="171">
                   <c:v>682</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="172">
                   <c:v>683</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="173">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="176">
                   <c:v>689</c:v>
                 </c:pt>
-                <c:pt idx="172">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="177">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="178">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="179">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="180">
                   <c:v>690</c:v>
                 </c:pt>
-                <c:pt idx="178">
-                  <c:v>694</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>694</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>694</c:v>
-                </c:pt>
                 <c:pt idx="181">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="183">
                   <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>697</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="185">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="189">
                   <c:v>700</c:v>
                 </c:pt>
-                <c:pt idx="186">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="190">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="193">
                   <c:v>702</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="194">
                   <c:v>703</c:v>
                 </c:pt>
-                <c:pt idx="191">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="195">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="197">
                   <c:v>705</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>705</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>704</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>706</c:v>
                 </c:pt>
                 <c:pt idx="199">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="203">
                   <c:v>710</c:v>
                 </c:pt>
-                <c:pt idx="200">
+                <c:pt idx="204">
                   <c:v>710</c:v>
                 </c:pt>
-                <c:pt idx="201">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="202">
+                <c:pt idx="205">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="206">
                   <c:v>712</c:v>
                 </c:pt>
-                <c:pt idx="203">
+                <c:pt idx="207">
                   <c:v>713</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>713</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>715</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>715</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="209">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="214">
                   <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>719</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>722</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>722</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>722</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="219">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="223">
                   <c:v>723</c:v>
                 </c:pt>
-                <c:pt idx="220">
+                <c:pt idx="224">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="225">
                   <c:v>724</c:v>
                 </c:pt>
-                <c:pt idx="221">
+                <c:pt idx="226">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="227">
                   <c:v>724</c:v>
                 </c:pt>
-                <c:pt idx="222">
-                  <c:v>722</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="226">
+                <c:pt idx="228">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="232">
                   <c:v>728</c:v>
                 </c:pt>
-                <c:pt idx="227">
+                <c:pt idx="233">
                   <c:v>728</c:v>
                 </c:pt>
-                <c:pt idx="228">
+                <c:pt idx="234">
                   <c:v>729</c:v>
                 </c:pt>
-                <c:pt idx="229">
-                  <c:v>727</c:v>
-                </c:pt>
-                <c:pt idx="230">
+                <c:pt idx="235">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="236">
                   <c:v>730</c:v>
                 </c:pt>
-                <c:pt idx="231">
+                <c:pt idx="237">
                   <c:v>730</c:v>
                 </c:pt>
-                <c:pt idx="232">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="233">
+                <c:pt idx="238">
                   <c:v>732</c:v>
                 </c:pt>
-                <c:pt idx="234">
+                <c:pt idx="239">
                   <c:v>732</c:v>
                 </c:pt>
-                <c:pt idx="235">
+                <c:pt idx="240">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="241">
                   <c:v>733</c:v>
                 </c:pt>
-                <c:pt idx="236">
-                  <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>734</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>734</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>734</c:v>
-                </c:pt>
-                <c:pt idx="240">
+                <c:pt idx="242">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>733</c:v>
+                </c:pt>
+                <c:pt idx="244">
                   <c:v>735</c:v>
                 </c:pt>
-                <c:pt idx="241">
+                <c:pt idx="245">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="246">
                   <c:v>736</c:v>
                 </c:pt>
-                <c:pt idx="242">
+                <c:pt idx="247">
                   <c:v>736</c:v>
                 </c:pt>
-                <c:pt idx="243">
+                <c:pt idx="248">
                   <c:v>737</c:v>
                 </c:pt>
-                <c:pt idx="244">
+                <c:pt idx="249">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="250">
                   <c:v>738</c:v>
                 </c:pt>
-                <c:pt idx="245">
+                <c:pt idx="251">
                   <c:v>738</c:v>
                 </c:pt>
-                <c:pt idx="246">
+                <c:pt idx="252">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>739</c:v>
                 </c:pt>
-                <c:pt idx="247">
-                  <c:v>739</c:v>
-                </c:pt>
-                <c:pt idx="248">
+                <c:pt idx="254">
                   <c:v>740</c:v>
                 </c:pt>
-                <c:pt idx="249">
+                <c:pt idx="255">
                   <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>741</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>741</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>742</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>742</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="43391161"/>
-        <c:axId val="39973093"/>
+        <c:axId val="28569000"/>
+        <c:axId val="34077479"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43391161"/>
+        <c:axId val="28569000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="255"/>
@@ -3570,11 +3557,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="39973093"/>
+        <c:crossAx val="34077479"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39973093"/>
+        <c:axId val="34077479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3624,7 +3611,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="43391161"/>
+        <c:crossAx val="28569000"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -3654,15 +3641,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>640800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:colOff>667800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:colOff>228240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3670,8 +3657,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5037480" y="3343320"/>
-        <a:ext cx="7187040" cy="2743200"/>
+        <a:off x="5064480" y="3334320"/>
+        <a:ext cx="7186680" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3684,15 +3671,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:colOff>62640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3700,8 +3687,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3689280" y="200520"/>
-        <a:ext cx="9132120" cy="2742840"/>
+        <a:off x="3716280" y="191520"/>
+        <a:ext cx="9131760" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3721,8 +3708,8 @@
   </sheetPr>
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A255" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K285" activeCellId="0" sqref="K285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3732,7 +3719,7 @@
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3743,607 +3730,607 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">B2/1024*5</f>
-        <v>0.009765625</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0146484375</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">B3/1024*5</f>
-        <v>0.068359375</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0146484375</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">B4/1024*5</f>
-        <v>0.1611328125</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.244140625</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">B5/1024*5</f>
-        <v>0.2734375</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B6/1024*5</f>
-        <v>0.3759765625</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.5078125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7/1024*5</f>
-        <v>0.4736328125</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.615234375</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8/1024*5</f>
-        <v>0.56640625</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7080078125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9/1024*5</f>
-        <v>0.6591796875</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.791015625</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10/1024*5</f>
-        <v>0.7421875</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.869140625</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11/1024*5</f>
-        <v>0.8203125</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12/1024*5</f>
-        <v>0.8935546875</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.0107421875</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13/1024*5</f>
-        <v>0.9619140625</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.0693359375</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">B14/1024*5</f>
-        <v>1.0302734375</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.1328125</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C15" s="0" t="n">
         <f aca="false">B15/1024*5</f>
-        <v>1.09375</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.1865234375</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C16" s="0" t="n">
         <f aca="false">B16/1024*5</f>
-        <v>1.15234375</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.2548828125</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C17" s="0" t="n">
         <f aca="false">B17/1024*5</f>
-        <v>1.2109375</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.298828125</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C18" s="0" t="n">
         <f aca="false">B18/1024*5</f>
-        <v>1.2646484375</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.3427734375</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="C19" s="0" t="n">
         <f aca="false">B19/1024*5</f>
-        <v>1.3134765625</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.3916015625</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C20" s="0" t="n">
         <f aca="false">B20/1024*5</f>
-        <v>1.3671875</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.4404296875</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">B21/1024*5</f>
-        <v>1.416015625</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.4794921875</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C22" s="0" t="n">
         <f aca="false">B22/1024*5</f>
-        <v>1.4599609375</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.5234375</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C23" s="0" t="n">
         <f aca="false">B23/1024*5</f>
-        <v>1.4990234375</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.5576171875</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">B24/1024*5</f>
-        <v>1.54296875</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.6015625</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C25" s="0" t="n">
         <f aca="false">B25/1024*5</f>
-        <v>1.58203125</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.6357421875</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="C26" s="0" t="n">
         <f aca="false">B26/1024*5</f>
-        <v>1.62109375</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.6748046875</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C27" s="0" t="n">
         <f aca="false">B27/1024*5</f>
-        <v>1.66015625</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.708984375</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C28" s="0" t="n">
         <f aca="false">B28/1024*5</f>
-        <v>1.6943359375</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.73828125</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C29" s="0" t="n">
         <f aca="false">B29/1024*5</f>
-        <v>1.7333984375</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.7724609375</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C30" s="0" t="n">
         <f aca="false">B30/1024*5</f>
-        <v>1.7626953125</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.8017578125</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C31" s="0" t="n">
         <f aca="false">B31/1024*5</f>
-        <v>1.796875</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.8310546875</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C32" s="0" t="n">
         <f aca="false">B32/1024*5</f>
-        <v>1.826171875</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C33" s="0" t="n">
         <f aca="false">B33/1024*5</f>
-        <v>1.8505859375</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.904296875</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">B34/1024*5</f>
-        <v>1.8896484375</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.9189453125</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C35" s="0" t="n">
         <f aca="false">B35/1024*5</f>
-        <v>1.9189453125</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.9482421875</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C36" s="0" t="n">
         <f aca="false">B36/1024*5</f>
-        <v>1.953125</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.97265625</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C37" s="0" t="n">
         <f aca="false">B37/1024*5</f>
-        <v>1.97265625</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.9970703125</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C38" s="0" t="n">
         <f aca="false">B38/1024*5</f>
-        <v>2.001953125</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.021484375</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C39" s="0" t="n">
         <f aca="false">B39/1024*5</f>
-        <v>2.0263671875</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.0458984375</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C40" s="0" t="n">
         <f aca="false">B40/1024*5</f>
-        <v>2.041015625</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.0703125</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C41" s="0" t="n">
         <f aca="false">B41/1024*5</f>
-        <v>2.0751953125</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.0947265625</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C42" s="0" t="n">
         <f aca="false">B42/1024*5</f>
-        <v>2.099609375</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.119140625</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C43" s="0" t="n">
         <f aca="false">B43/1024*5</f>
-        <v>2.12890625</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.138671875</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">B44/1024*5</f>
-        <v>2.1435546875</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.158203125</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C45" s="0" t="n">
         <f aca="false">B45/1024*5</f>
-        <v>2.1728515625</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.177734375</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">B46/1024*5</f>
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.2021484375</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">B47/1024*5</f>
-        <v>2.2021484375</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.216796875</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">B48/1024*5</f>
-        <v>2.2314453125</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.2509765625</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">B49/1024*5</f>
-        <v>2.2509765625</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.2705078125</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C50" s="0" t="n">
         <f aca="false">B50/1024*5</f>
-        <v>2.2705078125</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.2900390625</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C51" s="0" t="n">
         <f aca="false">B51/1024*5</f>
-        <v>2.2900390625</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.2998046875</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>50</v>
       </c>
@@ -4355,7 +4342,7 @@
         <v>2.314453125</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>51</v>
       </c>
@@ -4367,31 +4354,31 @@
         <v>2.333984375</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C54" s="0" t="n">
         <f aca="false">B54/1024*5</f>
-        <v>2.3388671875</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.3486328125</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C55" s="0" t="n">
         <f aca="false">B55/1024*5</f>
-        <v>2.36328125</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.3681640625</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>54</v>
       </c>
@@ -4403,31 +4390,31 @@
         <v>2.3828125</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C57" s="0" t="n">
         <f aca="false">B57/1024*5</f>
-        <v>2.3974609375</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.40234375</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C58" s="0" t="n">
         <f aca="false">B58/1024*5</f>
-        <v>2.412109375</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.4169921875</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
@@ -4439,55 +4426,55 @@
         <v>2.431640625</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C60" s="0" t="n">
         <f aca="false">B60/1024*5</f>
-        <v>2.4560546875</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.4462890625</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C61" s="0" t="n">
         <f aca="false">B61/1024*5</f>
-        <v>2.4560546875</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.4609375</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C62" s="0" t="n">
         <f aca="false">B62/1024*5</f>
-        <v>2.48046875</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.4755859375</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C63" s="0" t="n">
         <f aca="false">B63/1024*5</f>
-        <v>2.4951171875</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.4853515625</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>62</v>
       </c>
@@ -4499,31 +4486,31 @@
         <v>2.5048828125</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C65" s="0" t="n">
         <f aca="false">B65/1024*5</f>
-        <v>2.51953125</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.529296875</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C66" s="0" t="n">
         <f aca="false">B66/1024*5</f>
-        <v>2.5390625</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.5439453125</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>65</v>
       </c>
@@ -4535,43 +4522,43 @@
         <v>2.55859375</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C68" s="0" t="n">
         <f aca="false">B68/1024*5</f>
-        <v>2.55859375</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.5732421875</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C69" s="0" t="n">
         <f aca="false">B69/1024*5</f>
-        <v>2.5830078125</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.5732421875</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C70" s="0" t="n">
         <f aca="false">B70/1024*5</f>
-        <v>2.5927734375</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.587890625</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
         <v>69</v>
       </c>
@@ -4583,115 +4570,115 @@
         <v>2.6025390625</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C72" s="0" t="n">
         <f aca="false">B72/1024*5</f>
-        <v>2.6171875</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6123046875</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C73" s="0" t="n">
         <f aca="false">B73/1024*5</f>
-        <v>2.6318359375</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.626953125</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C74" s="0" t="n">
         <f aca="false">B74/1024*5</f>
-        <v>2.646484375</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.63671875</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C75" s="0" t="n">
         <f aca="false">B75/1024*5</f>
-        <v>2.6513671875</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.646484375</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C76" s="0" t="n">
         <f aca="false">B76/1024*5</f>
-        <v>2.666015625</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6611328125</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C77" s="0" t="n">
         <f aca="false">B77/1024*5</f>
-        <v>2.685546875</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6708984375</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C78" s="0" t="n">
         <f aca="false">B78/1024*5</f>
-        <v>2.685546875</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6806640625</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C79" s="0" t="n">
         <f aca="false">B79/1024*5</f>
-        <v>2.7001953125</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.6904296875</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C80" s="0" t="n">
         <f aca="false">B80/1024*5</f>
-        <v>2.71484375</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7001953125</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>79</v>
       </c>
@@ -4703,19 +4690,19 @@
         <v>2.7294921875</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C82" s="0" t="n">
         <f aca="false">B82/1024*5</f>
-        <v>2.7294921875</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7392578125</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>81</v>
       </c>
@@ -4727,199 +4714,199 @@
         <v>2.7490234375</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C84" s="0" t="n">
         <f aca="false">B84/1024*5</f>
-        <v>2.7685546875</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.763671875</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C85" s="0" t="n">
         <f aca="false">B85/1024*5</f>
-        <v>2.763671875</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7685546875</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C86" s="0" t="n">
         <f aca="false">B86/1024*5</f>
-        <v>2.7783203125</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7685546875</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C87" s="0" t="n">
         <f aca="false">B87/1024*5</f>
-        <v>2.79296875</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7783203125</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C88" s="0" t="n">
         <f aca="false">B88/1024*5</f>
-        <v>2.802734375</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7880859375</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C89" s="0" t="n">
         <f aca="false">B89/1024*5</f>
-        <v>2.802734375</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.7978515625</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C90" s="0" t="n">
         <f aca="false">B90/1024*5</f>
-        <v>2.822265625</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.8076171875</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C91" s="0" t="n">
         <f aca="false">B91/1024*5</f>
-        <v>2.8369140625</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.8173828125</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C92" s="0" t="n">
         <f aca="false">B92/1024*5</f>
-        <v>2.8271484375</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.822265625</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C93" s="0" t="n">
         <f aca="false">B93/1024*5</f>
-        <v>2.8466796875</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.83203125</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C94" s="0" t="n">
         <f aca="false">B94/1024*5</f>
-        <v>2.8564453125</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.8466796875</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C95" s="0" t="n">
         <f aca="false">B95/1024*5</f>
-        <v>2.8662109375</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.8564453125</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C96" s="0" t="n">
         <f aca="false">B96/1024*5</f>
-        <v>2.87109375</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.861328125</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C97" s="0" t="n">
         <f aca="false">B97/1024*5</f>
-        <v>2.8857421875</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.880859375</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C98" s="0" t="n">
         <f aca="false">B98/1024*5</f>
-        <v>2.900390625</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.890625</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C99" s="0" t="n">
         <f aca="false">B99/1024*5</f>
-        <v>2.8955078125</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.900390625</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
         <v>98</v>
       </c>
@@ -4931,115 +4918,115 @@
         <v>2.91015625</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C101" s="0" t="n">
         <f aca="false">B101/1024*5</f>
-        <v>2.9248046875</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.919921875</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C102" s="0" t="n">
         <f aca="false">B102/1024*5</f>
-        <v>2.9296875</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9248046875</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C103" s="0" t="n">
         <f aca="false">B103/1024*5</f>
-        <v>2.9345703125</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9248046875</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C104" s="0" t="n">
         <f aca="false">B104/1024*5</f>
-        <v>2.9443359375</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9296875</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C105" s="0" t="n">
         <f aca="false">B105/1024*5</f>
-        <v>2.958984375</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.939453125</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C106" s="0" t="n">
         <f aca="false">B106/1024*5</f>
-        <v>2.94921875</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9443359375</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C107" s="0" t="n">
         <f aca="false">B107/1024*5</f>
-        <v>2.96875</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.9541015625</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C108" s="0" t="n">
         <f aca="false">B108/1024*5</f>
-        <v>2.9833984375</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.958984375</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C109" s="0" t="n">
         <f aca="false">B109/1024*5</f>
-        <v>2.9833984375</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.978515625</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
         <v>108</v>
       </c>
@@ -5051,127 +5038,127 @@
         <v>2.98828125</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C111" s="0" t="n">
         <f aca="false">B111/1024*5</f>
-        <v>3.0029296875</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.998046875</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C112" s="0" t="n">
         <f aca="false">B112/1024*5</f>
-        <v>3.0126953125</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0078125</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C113" s="0" t="n">
         <f aca="false">B113/1024*5</f>
-        <v>3.0078125</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.998046875</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C114" s="0" t="n">
         <f aca="false">B114/1024*5</f>
-        <v>3.0224609375</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0078125</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C115" s="0" t="n">
         <f aca="false">B115/1024*5</f>
-        <v>3.037109375</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0126953125</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C116" s="0" t="n">
         <f aca="false">B116/1024*5</f>
-        <v>3.037109375</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.017578125</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C117" s="0" t="n">
         <f aca="false">B117/1024*5</f>
-        <v>3.0419921875</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0224609375</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C118" s="0" t="n">
         <f aca="false">B118/1024*5</f>
-        <v>3.056640625</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.046875</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C119" s="0" t="n">
         <f aca="false">B119/1024*5</f>
-        <v>3.0615234375</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.056640625</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C120" s="0" t="n">
         <f aca="false">B120/1024*5</f>
-        <v>3.056640625</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0615234375</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
         <v>119</v>
       </c>
@@ -5183,103 +5170,103 @@
         <v>3.0712890625</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C122" s="0" t="n">
         <f aca="false">B122/1024*5</f>
-        <v>3.0859375</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.076171875</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C123" s="0" t="n">
         <f aca="false">B123/1024*5</f>
-        <v>3.0810546875</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.06640625</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C124" s="0" t="n">
         <f aca="false">B124/1024*5</f>
-        <v>3.0908203125</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0712890625</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C125" s="0" t="n">
         <f aca="false">B125/1024*5</f>
-        <v>3.10546875</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0810546875</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C126" s="0" t="n">
         <f aca="false">B126/1024*5</f>
-        <v>3.10546875</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0859375</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C127" s="0" t="n">
         <f aca="false">B127/1024*5</f>
-        <v>3.10546875</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.0908203125</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C128" s="0" t="n">
         <f aca="false">B128/1024*5</f>
-        <v>3.115234375</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1103515625</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C129" s="0" t="n">
         <f aca="false">B129/1024*5</f>
-        <v>3.1298828125</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1201171875</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
         <v>128</v>
       </c>
@@ -5291,7 +5278,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
         <v>129</v>
       </c>
@@ -5303,115 +5290,115 @@
         <v>3.134765625</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C132" s="0" t="n">
         <f aca="false">B132/1024*5</f>
-        <v>3.1494140625</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.134765625</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C133" s="0" t="n">
         <f aca="false">B133/1024*5</f>
-        <v>3.154296875</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1298828125</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
         <v>132</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C134" s="0" t="n">
         <f aca="false">B134/1024*5</f>
-        <v>3.14453125</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.134765625</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C135" s="0" t="n">
         <f aca="false">B135/1024*5</f>
-        <v>3.1640625</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1396484375</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C136" s="0" t="n">
         <f aca="false">B136/1024*5</f>
-        <v>3.1689453125</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.14453125</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C137" s="0" t="n">
         <f aca="false">B137/1024*5</f>
-        <v>3.1689453125</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1640625</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C138" s="0" t="n">
         <f aca="false">B138/1024*5</f>
-        <v>3.173828125</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1689453125</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C139" s="0" t="n">
         <f aca="false">B139/1024*5</f>
-        <v>3.193359375</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.173828125</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C140" s="0" t="n">
         <f aca="false">B140/1024*5</f>
-        <v>3.193359375</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.18359375</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
         <v>139</v>
       </c>
@@ -5423,79 +5410,79 @@
         <v>3.1884765625</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C142" s="0" t="n">
         <f aca="false">B142/1024*5</f>
-        <v>3.2080078125</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1982421875</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C143" s="0" t="n">
         <f aca="false">B143/1024*5</f>
-        <v>3.2080078125</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1884765625</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C144" s="0" t="n">
         <f aca="false">B144/1024*5</f>
-        <v>3.203125</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.193359375</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C145" s="0" t="n">
         <f aca="false">B145/1024*5</f>
-        <v>3.212890625</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.1982421875</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C146" s="0" t="n">
         <f aca="false">B146/1024*5</f>
-        <v>3.2275390625</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.203125</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C147" s="0" t="n">
         <f aca="false">B147/1024*5</f>
-        <v>3.232421875</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2177734375</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
         <v>146</v>
       </c>
@@ -5507,31 +5494,31 @@
         <v>3.2275390625</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C149" s="0" t="n">
         <f aca="false">B149/1024*5</f>
-        <v>3.2421875</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2275390625</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
         <v>148</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C150" s="0" t="n">
         <f aca="false">B150/1024*5</f>
-        <v>3.2470703125</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2373046875</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
         <v>149</v>
       </c>
@@ -5543,79 +5530,79 @@
         <v>3.2421875</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
         <v>150</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C152" s="0" t="n">
         <f aca="false">B152/1024*5</f>
-        <v>3.251953125</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2470703125</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C153" s="0" t="n">
         <f aca="false">B153/1024*5</f>
-        <v>3.26171875</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2373046875</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
         <v>152</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C154" s="0" t="n">
         <f aca="false">B154/1024*5</f>
-        <v>3.2666015625</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2421875</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
         <v>153</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C155" s="0" t="n">
         <f aca="false">B155/1024*5</f>
-        <v>3.26171875</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2470703125</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
         <v>154</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C156" s="0" t="n">
         <f aca="false">B156/1024*5</f>
-        <v>3.28125</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2666015625</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
         <v>155</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C157" s="0" t="n">
         <f aca="false">B157/1024*5</f>
-        <v>3.28125</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.271484375</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
         <v>156</v>
       </c>
@@ -5627,43 +5614,43 @@
         <v>3.2763671875</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
         <v>157</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C159" s="0" t="n">
         <f aca="false">B159/1024*5</f>
-        <v>3.2861328125</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.28125</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
         <v>158</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C160" s="0" t="n">
         <f aca="false">B160/1024*5</f>
-        <v>3.2958984375</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2861328125</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
         <v>159</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C161" s="0" t="n">
         <f aca="false">B161/1024*5</f>
-        <v>3.30078125</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.291015625</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
         <v>160</v>
       </c>
@@ -5675,283 +5662,283 @@
         <v>3.2958984375</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
         <v>161</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C163" s="0" t="n">
         <f aca="false">B163/1024*5</f>
-        <v>3.3154296875</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.2861328125</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
         <v>162</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C164" s="0" t="n">
         <f aca="false">B164/1024*5</f>
-        <v>3.3154296875</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.291015625</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
         <v>163</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C165" s="0" t="n">
         <f aca="false">B165/1024*5</f>
-        <v>3.3056640625</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.291015625</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C166" s="0" t="n">
         <f aca="false">B166/1024*5</f>
-        <v>3.3251953125</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.310546875</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
         <v>165</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C167" s="0" t="n">
         <f aca="false">B167/1024*5</f>
-        <v>3.330078125</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3154296875</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C168" s="0" t="n">
         <f aca="false">B168/1024*5</f>
-        <v>3.330078125</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3203125</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C169" s="0" t="n">
         <f aca="false">B169/1024*5</f>
-        <v>3.330078125</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3251953125</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
         <v>168</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C170" s="0" t="n">
         <f aca="false">B170/1024*5</f>
-        <v>3.3447265625</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.330078125</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
         <v>169</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C171" s="0" t="n">
         <f aca="false">B171/1024*5</f>
-        <v>3.349609375</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.33984375</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
         <v>170</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C172" s="0" t="n">
         <f aca="false">B172/1024*5</f>
-        <v>3.3349609375</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3251953125</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C173" s="0" t="n">
         <f aca="false">B173/1024*5</f>
-        <v>3.3642578125</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.330078125</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
         <v>172</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C174" s="0" t="n">
         <f aca="false">B174/1024*5</f>
-        <v>3.359375</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3349609375</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
         <v>173</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C175" s="0" t="n">
         <f aca="false">B175/1024*5</f>
-        <v>3.359375</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3349609375</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C176" s="0" t="n">
         <f aca="false">B176/1024*5</f>
-        <v>3.359375</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3544921875</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
         <v>175</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C177" s="0" t="n">
         <f aca="false">B177/1024*5</f>
-        <v>3.3740234375</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.359375</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
         <v>176</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C178" s="0" t="n">
         <f aca="false">B178/1024*5</f>
-        <v>3.3740234375</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3642578125</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
         <v>177</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C179" s="0" t="n">
         <f aca="false">B179/1024*5</f>
-        <v>3.369140625</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3642578125</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
         <v>178</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C180" s="0" t="n">
         <f aca="false">B180/1024*5</f>
-        <v>3.388671875</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3740234375</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C181" s="0" t="n">
         <f aca="false">B181/1024*5</f>
-        <v>3.388671875</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3740234375</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C182" s="0" t="n">
         <f aca="false">B182/1024*5</f>
-        <v>3.388671875</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.369140625</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
         <v>181</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C183" s="0" t="n">
         <f aca="false">B183/1024*5</f>
-        <v>3.3935546875</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.369140625</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
         <v>182</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="C184" s="0" t="n">
         <f aca="false">B184/1024*5</f>
-        <v>3.4033203125</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.369140625</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
         <v>183</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C185" s="0" t="n">
         <f aca="false">B185/1024*5</f>
-        <v>3.4033203125</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3935546875</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
         <v>184</v>
       </c>
@@ -5963,163 +5950,163 @@
         <v>3.3984375</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
         <v>185</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C187" s="0" t="n">
         <f aca="false">B187/1024*5</f>
-        <v>3.41796875</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.3984375</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
         <v>186</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C188" s="0" t="n">
         <f aca="false">B188/1024*5</f>
-        <v>3.41796875</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4033203125</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
         <v>187</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C189" s="0" t="n">
         <f aca="false">B189/1024*5</f>
-        <v>3.4130859375</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.408203125</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
         <v>188</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C190" s="0" t="n">
         <f aca="false">B190/1024*5</f>
-        <v>3.4228515625</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.408203125</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
         <v>189</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C191" s="0" t="n">
         <f aca="false">B191/1024*5</f>
-        <v>3.427734375</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.41796875</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
         <v>190</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C192" s="0" t="n">
         <f aca="false">B192/1024*5</f>
-        <v>3.4326171875</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.408203125</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
         <v>191</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C193" s="0" t="n">
         <f aca="false">B193/1024*5</f>
-        <v>3.4228515625</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.408203125</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
         <v>192</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C194" s="0" t="n">
         <f aca="false">B194/1024*5</f>
-        <v>3.4423828125</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.408203125</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
         <v>193</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C195" s="0" t="n">
         <f aca="false">B195/1024*5</f>
-        <v>3.4423828125</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.427734375</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
         <v>194</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C196" s="0" t="n">
         <f aca="false">B196/1024*5</f>
-        <v>3.4375</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4326171875</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
         <v>195</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C197" s="0" t="n">
         <f aca="false">B197/1024*5</f>
-        <v>3.4521484375</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
         <v>196</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C198" s="0" t="n">
         <f aca="false">B198/1024*5</f>
-        <v>3.4521484375</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
         <v>197</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C199" s="0" t="n">
         <f aca="false">B199/1024*5</f>
-        <v>3.45703125</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4423828125</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
         <v>198</v>
       </c>
@@ -6131,115 +6118,115 @@
         <v>3.447265625</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
         <v>199</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C201" s="0" t="n">
         <f aca="false">B201/1024*5</f>
-        <v>3.466796875</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4521484375</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
         <v>200</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C202" s="0" t="n">
         <f aca="false">B202/1024*5</f>
-        <v>3.466796875</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4423828125</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
         <v>201</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C203" s="0" t="n">
         <f aca="false">B203/1024*5</f>
-        <v>3.4619140625</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4423828125</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
         <v>202</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C204" s="0" t="n">
         <f aca="false">B204/1024*5</f>
-        <v>3.4765625</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.45703125</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
         <v>203</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C205" s="0" t="n">
         <f aca="false">B205/1024*5</f>
-        <v>3.4814453125</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.466796875</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
         <v>204</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C206" s="0" t="n">
         <f aca="false">B206/1024*5</f>
-        <v>3.4814453125</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.466796875</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
         <v>205</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C207" s="0" t="n">
         <f aca="false">B207/1024*5</f>
-        <v>3.4765625</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.466796875</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
         <v>206</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C208" s="0" t="n">
         <f aca="false">B208/1024*5</f>
-        <v>3.4912109375</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4765625</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
         <v>207</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C209" s="0" t="n">
         <f aca="false">B209/1024*5</f>
-        <v>3.4912109375</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4814453125</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
         <v>208</v>
       </c>
@@ -6251,79 +6238,79 @@
         <v>3.4814453125</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
         <v>209</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C211" s="0" t="n">
         <f aca="false">B211/1024*5</f>
-        <v>3.5009765625</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4814453125</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
         <v>210</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C212" s="0" t="n">
         <f aca="false">B212/1024*5</f>
-        <v>3.5009765625</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4765625</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
         <v>211</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C213" s="0" t="n">
         <f aca="false">B213/1024*5</f>
-        <v>3.505859375</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.4716796875</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
         <v>212</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C214" s="0" t="n">
         <f aca="false">B214/1024*5</f>
-        <v>3.505859375</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.49609375</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C215" s="0" t="n">
         <f aca="false">B215/1024*5</f>
-        <v>3.5107421875</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.49609375</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
         <v>214</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C216" s="0" t="n">
         <f aca="false">B216/1024*5</f>
-        <v>3.515625</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5009765625</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
         <v>215</v>
       </c>
@@ -6335,484 +6322,484 @@
         <v>3.5009765625</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
         <v>216</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C218" s="0" t="n">
         <f aca="false">B218/1024*5</f>
-        <v>3.525390625</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5009765625</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
         <v>217</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C219" s="0" t="n">
         <f aca="false">B219/1024*5</f>
-        <v>3.525390625</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.505859375</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
         <v>218</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C220" s="0" t="n">
         <f aca="false">B220/1024*5</f>
-        <v>3.525390625</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.515625</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
         <v>219</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C221" s="0" t="n">
         <f aca="false">B221/1024*5</f>
-        <v>3.5302734375</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.515625</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
         <v>220</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C222" s="0" t="n">
         <f aca="false">B222/1024*5</f>
-        <v>3.53515625</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.505859375</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
         <v>221</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C223" s="0" t="n">
         <f aca="false">B223/1024*5</f>
-        <v>3.53515625</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5205078125</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
         <v>222</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C224" s="0" t="n">
         <f aca="false">B224/1024*5</f>
-        <v>3.525390625</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5205078125</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
         <v>223</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C225" s="0" t="n">
         <f aca="false">B225/1024*5</f>
-        <v>3.544921875</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5302734375</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
         <v>224</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C226" s="0" t="n">
         <f aca="false">B226/1024*5</f>
-        <v>3.544921875</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5302734375</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
         <v>225</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C227" s="0" t="n">
         <f aca="false">B227/1024*5</f>
-        <v>3.544921875</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.53515625</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
         <v>226</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C228" s="0" t="n">
         <f aca="false">B228/1024*5</f>
-        <v>3.5546875</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5400390625</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
         <v>227</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C229" s="0" t="n">
         <f aca="false">B229/1024*5</f>
-        <v>3.5546875</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.53515625</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
         <v>228</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C230" s="0" t="n">
         <f aca="false">B230/1024*5</f>
-        <v>3.5595703125</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5400390625</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
         <v>229</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C231" s="0" t="n">
         <f aca="false">B231/1024*5</f>
-        <v>3.5498046875</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5400390625</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
         <v>230</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C232" s="0" t="n">
         <f aca="false">B232/1024*5</f>
-        <v>3.564453125</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.53515625</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
         <v>231</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C233" s="0" t="n">
         <f aca="false">B233/1024*5</f>
-        <v>3.564453125</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5498046875</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
         <v>232</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C234" s="0" t="n">
         <f aca="false">B234/1024*5</f>
-        <v>3.564453125</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5546875</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
         <v>233</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C235" s="0" t="n">
         <f aca="false">B235/1024*5</f>
-        <v>3.57421875</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5546875</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
         <v>234</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C236" s="0" t="n">
         <f aca="false">B236/1024*5</f>
-        <v>3.57421875</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5595703125</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
         <v>235</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C237" s="0" t="n">
         <f aca="false">B237/1024*5</f>
-        <v>3.5791015625</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5595703125</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
         <v>236</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C238" s="0" t="n">
         <f aca="false">B238/1024*5</f>
-        <v>3.57421875</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.564453125</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
         <v>237</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C239" s="0" t="n">
         <f aca="false">B239/1024*5</f>
-        <v>3.583984375</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.564453125</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
         <v>238</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C240" s="0" t="n">
         <f aca="false">B240/1024*5</f>
-        <v>3.583984375</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.57421875</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
         <v>239</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C241" s="0" t="n">
         <f aca="false">B241/1024*5</f>
-        <v>3.583984375</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.57421875</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
         <v>240</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C242" s="0" t="n">
         <f aca="false">B242/1024*5</f>
-        <v>3.5888671875</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5595703125</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
         <v>241</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C243" s="0" t="n">
         <f aca="false">B243/1024*5</f>
-        <v>3.59375</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5791015625</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
         <v>242</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C244" s="0" t="n">
         <f aca="false">B244/1024*5</f>
-        <v>3.59375</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5791015625</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
         <v>243</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C245" s="0" t="n">
         <f aca="false">B245/1024*5</f>
-        <v>3.5986328125</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5791015625</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
         <v>244</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C246" s="0" t="n">
         <f aca="false">B246/1024*5</f>
-        <v>3.603515625</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5888671875</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
         <v>245</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C247" s="0" t="n">
         <f aca="false">B247/1024*5</f>
-        <v>3.603515625</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5888671875</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
         <v>246</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C248" s="0" t="n">
         <f aca="false">B248/1024*5</f>
-        <v>3.6083984375</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.59375</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
         <v>247</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C249" s="0" t="n">
         <f aca="false">B249/1024*5</f>
-        <v>3.6083984375</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.59375</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
         <v>248</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C250" s="0" t="n">
         <f aca="false">B250/1024*5</f>
-        <v>3.61328125</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5986328125</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
         <v>249</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C251" s="0" t="n">
         <f aca="false">B251/1024*5</f>
-        <v>3.61328125</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.5986328125</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
         <v>250</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C252" s="0" t="n">
         <f aca="false">B252/1024*5</f>
-        <v>3.6181640625</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.603515625</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
         <v>251</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C253" s="0" t="n">
         <f aca="false">B253/1024*5</f>
-        <v>3.6181640625</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.603515625</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
         <v>252</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C254" s="0" t="n">
         <f aca="false">B254/1024*5</f>
-        <v>3.623046875</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.603515625</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
         <v>253</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C255" s="0" t="n">
         <f aca="false">B255/1024*5</f>
-        <v>3.623046875</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.6083984375</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
         <v>254</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C256" s="0" t="n">
         <f aca="false">B256/1024*5</f>
-        <v>3.6279296875</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.61328125</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
         <v>255</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C257" s="0" t="n">
         <f aca="false">B257/1024*5</f>
-        <v>3.6279296875</v>
+        <v>3.61328125</v>
       </c>
     </row>
   </sheetData>
